--- a/book_data.xlsx
+++ b/book_data.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f883aff5-f844-4f1a-a9af-21bc80efc7cf</t>
+          <t>1fd77f7d-2fa8-46b5-903f-1d4d4895a1ab</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>eaf89090-2212-439f-be39-e0c4e5cb6140</t>
+          <t>d2e1c667-7da6-4244-b428-693c2aecba8d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>e720d1aa-8058-41c3-a738-31a2f679644c</t>
+          <t>dd756e63-ecc5-4e5a-8f5d-084cf094e41c</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>53c74fef-eacf-42d6-a1ed-fe44ff87d7c4</t>
+          <t>e4ccd2f8-a0a2-4cf3-ba87-9ba3126a31ef</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>90785b7c-b5a1-4a87-bcfb-0b5afe4d4410</t>
+          <t>08977104-638e-4c65-9e73-94c9f48e9de9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -608,7 +608,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>f8c67a34-beb8-49e7-8743-3eaafb9ad347</t>
+          <t>b165d07c-849f-4b93-98c0-71f0f4c0b59d</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bdbeffd5-eda7-4842-a734-ce42dd8d7ba8</t>
+          <t>a129deb8-9cbc-4b44-b2f1-d8a8a89712ec</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15bb0dcc-ff99-4426-902f-42eef7f7cc9a</t>
+          <t>ac9c0a41-6f08-413b-91cc-a3f93b3e164d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6fadcd98-bfce-41ad-a0b7-8271a8c73534</t>
+          <t>6a821279-858b-4387-8f58-bc11c54f0f95</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>e0770701-7252-460f-b653-41d9c06fcbb8</t>
+          <t>daf245b0-42d9-4f6e-8519-7a4b9f7efddd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>555381dd-2858-494e-8f16-7b01056799a3</t>
+          <t>1b6f8513-7098-46e6-a97a-53ecf2600180</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2ce82546-ae7b-4bbc-ac58-b6d2808bc3ca</t>
+          <t>9b35fa4d-a88f-46c2-a1cc-7e816f5de556</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>708d48b7-ff1c-41e3-b04f-eac118ca0ca7</t>
+          <t>2704d876-7c46-491f-b62c-74135a1b8147</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8027fada-6ebe-4548-bf1b-5e8ddb8534ec</t>
+          <t>7c7f4481-572a-45ac-9e7d-1481e9ef0725</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -860,7 +860,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>f66af196-34fa-4581-ad34-d66ee9824caf</t>
+          <t>a4fed134-6923-4f1c-8cb6-a309095a2ae6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>105b944d-c579-4406-95e9-1ad1493de6a3</t>
+          <t>c6d8a7c5-8c0d-4c93-9c74-80e8490c4b7f</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1f6e6a28-4a3f-46eb-8bf6-39190a8870e9</t>
+          <t>09f888d4-e7a1-429e-9a17-7f66ccb52e80</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>88400eba-1684-4a2d-be80-e2c38856a6f3</t>
+          <t>7ab0b0e2-f764-4e89-b266-2c0e15610668</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>267731f8-d5ec-4c33-8ec5-fca563ee664b</t>
+          <t>ab1bf4f5-ebb2-4c63-b231-025f903b9f75</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9158b6b5-f7aa-4a59-a2b5-9c0d37e56969</t>
+          <t>6e2ab82b-afba-4f23-9164-9ba7f9736909</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>36664a03-9b98-486a-816d-9c95cebf9bec</t>
+          <t>bbbec945-d3d3-4ca2-ac1a-1a402a0f9bdd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>e74909e7-f9a3-407b-bfc8-62dde3c2102b</t>
+          <t>70e5de38-5421-4177-bd72-9404c518a5af</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>960aeff5-cfc9-4e64-88c3-7e9d75cf4af0</t>
+          <t>3377fe06-241e-4bc2-9b3a-9715726e2761</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1112,7 +1112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>79bf3512-fb83-4fe9-af73-83dc75c4a8e8</t>
+          <t>e4677004-b739-47fe-94a3-ccd6a8753b15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8f7f9d64-1cc6-44bc-870e-be658aaf1315</t>
+          <t>2eb9ab26-33ef-4a52-8414-3cb3328d1707</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7b8773c8-6c6f-49d8-bbf4-9bb14ff13fbd</t>
+          <t>bf0ef311-5d1c-48c6-81b2-e42835638980</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>96300126-c442-444e-8ae1-0f3e8a787351</t>
+          <t>3724e764-45e9-41bb-ba32-32cf21b9906a</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4b6258cd-586f-40c4-9f77-05ea66474387</t>
+          <t>4af9fcd2-101a-4f29-9b80-f906bcfe8a10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26e6957c-c2bd-4cfb-941c-bbe3852c6800</t>
+          <t>73e577cb-3713-4015-8a62-0a3978367e91</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1280,7 +1280,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>126e85d2-8970-49cb-9ee3-2d68ddf57c40</t>
+          <t>7e203247-a744-4b96-add3-ee0c42785e6a</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2fbce75c-370e-4894-9cb0-059eeb95bd2e</t>
+          <t>958d19b8-7053-4ab5-aa93-939cf5959461</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>92c73fcc-d6ea-426e-be5d-f171754e392b</t>
+          <t>d92d3d1c-8f7e-45a9-be3e-66f5c354ca5a</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8d8255d3-5aba-441e-9432-9b1d636bca1a</t>
+          <t>900f6937-c754-44dc-add4-12a5dd256988</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>480b000d-9804-4d36-a2ff-8098f56bfb59</t>
+          <t>2d7c0a50-43cd-4f93-b4f8-ce795d4eda4d</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>664dc981-1233-419a-b384-a74cd2b60cc3</t>
+          <t>71f8d967-e5dd-4f29-bfd9-6b56999857d4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0191ffec-dfdc-460c-ac83-2bc02361885b</t>
+          <t>2cb0b792-007e-41d6-8831-f28ce95f3ca1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>31d92437-f8e2-4e5c-b6b4-5030d2e14ce0</t>
+          <t>c1b47d9a-601a-426c-9693-f7d7b32fb9c7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>70cd4706-e9d8-4b61-a3b2-75c08075355a</t>
+          <t>95728e6c-49cb-4177-8fa6-17fca18be4d5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1532,7 +1532,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4e1505ec-f4c3-4416-911c-9236dc771796</t>
+          <t>7168d013-916b-4308-a3ea-a532ccd7fa14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3b9e3af9-a18f-4203-ac27-4f60c7bf5ab1</t>
+          <t>07f2f03a-f188-4a41-abd1-efda87c00d5c</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>83041b87-32de-4d72-9a94-c0766b00d039</t>
+          <t>0a43b889-145f-48d5-a9d8-61179b343f9c</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5a1b2482-c9ad-421b-89bf-0f4ab1ffa21b</t>
+          <t>302eca2c-a4cb-43d5-899b-4ba8a50c88d1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>d99e87ef-9772-4f1c-9b84-bb2e42a6c57c</t>
+          <t>9e81ddb5-6e49-4aa7-b850-81fe7bd94059</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8b0737a4-a0ba-4989-9f41-f9a815b3bbd7</t>
+          <t>ece7e609-3ef7-4ace-a6da-e829937d6652</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1700,7 +1700,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>e80420ef-e98a-4fb4-a914-dd82b035b2fa</t>
+          <t>e4d0a820-e2b6-4e09-9597-08896ee3bb51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12fae352-0159-462c-8b16-eed3322c8282</t>
+          <t>0437e5bf-02dc-4108-82a5-c554b3dfa176</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>14ddda85-d0ff-4096-b1fa-4288a87676b1</t>
+          <t>c785c4eb-5b08-47dd-9c82-c73ad6796fae</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1784,7 +1784,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>82f72077-c8eb-4b70-b198-356061e8ef17</t>
+          <t>d6b68bba-c2f7-461a-9d26-5c9c043f8a1d</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7711c2a6-66bb-4d10-98d3-7efff52b114e</t>
+          <t>106fc0ba-9416-447b-8dce-6639a2fc5036</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>249d072b-52bf-4d69-a3de-abac2db7ce13</t>
+          <t>a874831b-7a02-4707-a8bf-00564774fdbb</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>f64b959e-1d1f-41cb-9bda-24968769376c</t>
+          <t>3055753f-211b-4d04-b74f-c73d367f9f92</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>efd79bff-7a4a-4a47-9ea6-71c8f093916e</t>
+          <t>decf4b05-52ca-4632-b79a-9f1014ea85f5</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>36776908-2ba5-431b-9783-d21f2cb00c80</t>
+          <t>b428018a-3715-43a2-abb8-f1c6c6f931b5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1952,7 +1952,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1aff5b7c-e551-40d5-8302-4411bf0595ab</t>
+          <t>5c32d78c-ceb5-4c09-9f58-8a4f753d0f5e</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>dc1fa091-e351-4a66-a00b-ed3deaa077e6</t>
+          <t>3c49e358-2952-49ac-9833-065f25b1e16c</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0be49cf1-1dbd-4fa6-99da-74684f1595e5</t>
+          <t>a4f438fa-4073-4d6a-bd66-f16648e1c0b0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0dafb3db-e8a1-44eb-88bd-b1446d2e5fae</t>
+          <t>e6666751-f3f8-492c-befe-500fe207afd4</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cb7a6bdf-b823-4603-b4f2-3e23646e5bd8</t>
+          <t>a23e2fb7-d6ad-4823-b634-8b9c67b49dd1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>126ea4f9-4b86-406b-b802-facaf2596e9e</t>
+          <t>73e2d4d9-1fb6-406f-8539-d1508fb9f70e</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2120,7 +2120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8fed51e9-828a-4a05-b9ad-4f0e5e2d702e</t>
+          <t>bff98ddc-0775-4d64-9910-f91b698c7e05</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>a622353b-35c8-4f64-9583-15c4ea107f1a</t>
+          <t>629c4776-0bad-4879-ae69-e3471cc0419a</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>336b3e4a-e10b-4a01-9ed4-d2745e93099e</t>
+          <t>32c9a2e8-706a-4134-a424-8e5f6235eeaa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2204,7 +2204,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1db0711d-b957-4cf9-8413-6b592c0b03c2</t>
+          <t>f3e3d64b-4eb2-444c-9636-c0eb1ec5f7e7</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>030e228a-67e6-4403-9d80-18044d8f8f27</t>
+          <t>6d627572-7c00-4727-8e1c-c7e2b5f6aec5</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4bcea5de-fcf9-4b67-a795-d5d5872622ab</t>
+          <t>446b8f58-1470-453f-bff0-ef27464de71b</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2e27f20f-7111-4504-9b41-390d2fe00c8d</t>
+          <t>8cc336c6-0717-46b8-8487-d0809050166d</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>e3677654-a390-4eec-9227-0b04361f1b11</t>
+          <t>2ccd1a6a-7c81-4050-b27f-8d1e99ffb1b9</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3c9623e9-1a39-4e1b-86f6-6a2d89c9e694</t>
+          <t>017d4b60-9ac8-4057-9336-d98a44a42a33</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ad936895-cbb0-4c99-b4b7-af42d90737ab</t>
+          <t>652e8eca-5e1a-4c0e-a012-bb2f63c156f4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2400,7 +2400,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6deb042d-55bb-4d31-9564-b5fdbf187884</t>
+          <t>c249d33d-c86d-437f-9674-109300649b7b</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2a5cbe1c-6c3c-4e12-91ef-fd827d030b56</t>
+          <t>a741370c-f1d4-47ec-b2d5-45db55da04b5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>40947fb3-775d-4d22-88e2-e54e46c5a40f</t>
+          <t>a5bfa70f-8dda-4aa5-98e2-8418bddd74bb</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>c73be182-ea2d-4b08-b666-f2f0156d719e</t>
+          <t>26e499a6-ba07-41ea-a2ea-8b0dfd8488ae</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>42a28657-b616-444c-ae73-7832285c1832</t>
+          <t>cf8d7ff8-93f2-4f07-8e38-4c0638a34ef8</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2540,7 +2540,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>35ab8a36-28e6-41f7-9c66-826883942fc1</t>
+          <t>504bb0e5-d2b5-45e7-bc79-30ba08f89226</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>b1ee8c93-5c10-419a-a410-d69f493e3ab7</t>
+          <t>ec5f898e-ac87-4ad2-9a49-815d628d81b0</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>00aede9b-27d3-4b17-ae7a-9cd02944fe3d</t>
+          <t>45d30f15-7992-4c8f-8cf3-2a933825f0da</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2624,7 +2624,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>788a213c-3441-4be4-a06f-168d6d5dccbd</t>
+          <t>e8269539-da9d-409c-8804-b8405103f183</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2652,7 +2652,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8259def0-2a04-4ca3-baf3-fdd6d8df6877</t>
+          <t>842d06f1-467c-44d2-9ed1-69052f315bd8</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6721261a-4a21-4d6d-ab41-5d276c3f4475</t>
+          <t>10b93b6e-8b19-4691-b38e-29135e1f2bc2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1c1942d9-9aeb-49e6-a3d2-1aea62267a59</t>
+          <t>fb495d46-b054-4a65-b242-ac336186ef8f</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2736,7 +2736,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>e5b828ff-f0d9-46b8-9ce2-fa57eb99bbb0</t>
+          <t>bd9b50c3-49aa-41c2-9800-aa425c866eb3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>eb087711-962b-4b02-b2ac-a304ff8be18b</t>
+          <t>d03ac803-7d25-4226-aaa1-1c85c87c0f39</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>29323e03-426c-4978-9c90-d6cf0bdaff3f</t>
+          <t>24d742bd-190c-49a6-9825-ded299faa559</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0c35b897-f1fb-4542-96fa-811aa6e07e64</t>
+          <t>3cc777ea-ce86-4d2d-bd91-0b2d0100e459</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>74102bf3-1cfc-4160-9667-25a48cc9cf0e</t>
+          <t>43622ba7-6b29-4ac8-9e7d-3f3c246d76d8</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2876,7 +2876,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2712ef30-1806-464a-84a0-3b92c138e60a</t>
+          <t>afe64ae3-74dd-4969-b88b-4ff8c4bc6dc1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2904,7 +2904,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>630e82d5-30b2-4412-a6c2-8b10219fcc6c</t>
+          <t>f971ecc7-a315-4bae-8c72-a59ef0be1ec2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ff449e05-9551-41fd-8eb2-55503c702b79</t>
+          <t>4db87706-a590-4e9e-813e-4bab62731013</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2960,7 +2960,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0aae7306-ed9a-4c54-bd7d-7049dfff1327</t>
+          <t>c95fd14d-9d32-41ab-a748-cc3245ca8cb0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>f83ba400-1aaa-405c-a95f-309b5a4de739</t>
+          <t>9f1ad146-cd95-4d68-93fe-7d811f23876f</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>24d1cc3a-b2a8-4462-9717-09985b8361a4</t>
+          <t>56c91abd-4f70-4a11-8da3-77af11fb18c2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3044,7 +3044,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>9604c6d8-3f95-4d0b-87db-b93cc97584c2</t>
+          <t>ff459bc0-a76c-4238-8b66-b982f9f5918f</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3072,7 +3072,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>c03716fd-6a30-405a-84ea-5bfe935c75b8</t>
+          <t>5903d7d6-689a-4e38-93ba-cabc54f65ec2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>be04d9d3-306f-498c-b637-dea11b29b84a</t>
+          <t>be3f51a0-882c-461c-8f84-445342215c35</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3128,7 +3128,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>080ed40a-9ee6-41db-9b77-28e37edf7a2a</t>
+          <t>bab3f904-46c4-470a-957c-124dcde89f9e</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2f15e123-6dfa-49ef-a793-1acdca8f90aa</t>
+          <t>80a181b3-b291-4429-83ad-d8bbad6a29f3</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>57cf9035-a643-4f0b-a68a-03c3064c3fa2</t>
+          <t>8feb5986-8c03-4840-b874-924e77fcb56a</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3212,7 +3212,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>09957bc7-feb2-47a7-a766-95332d230fc3</t>
+          <t>d7bda8c5-13ca-42e7-8e27-91262517a5a3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3240,7 +3240,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4176e0e5-e48b-40b1-8891-b2e0bdb0ddea</t>
+          <t>83940426-c1ce-49fe-a3cf-1a67bcea2cd7</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7d14e3b5-8c7f-454b-a329-d533225cb6ea</t>
+          <t>9763978d-910d-48cc-9b55-414fb85a2819</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3296,7 +3296,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0a96b0d6-af3d-4559-a8e7-be582d925f1f</t>
+          <t>e5fdc9dc-d136-4f5a-97db-9505a3bba768</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3324,7 +3324,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>16176cb6-f2c1-467c-860e-604cc7abe463</t>
+          <t>89d54361-d3dc-4680-ad2b-ebf7e2d3dd9b</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>473015f2-22c3-41f5-be10-9f13353fb85b</t>
+          <t>6b3200ed-e499-4fda-b5f0-d93b3762a261</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>f0c81c95-5745-4d05-a77f-ef494662ed94</t>
+          <t>193b1c89-c77f-4ab3-98ef-04aa7513cf64</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2f635f3c-b8fb-4633-be1a-eefcbc7e2a47</t>
+          <t>1cd17ce2-7c6a-4f3c-b577-0ab6e62c89de</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>a8d6f62c-8e3c-4988-8f32-d930f395f115</t>
+          <t>23243a2d-5228-4041-8762-1732943f6e57</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3464,7 +3464,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b0efa4a3-2985-4e40-858f-c520bcaf3420</t>
+          <t>fb1c628e-705f-49d0-885a-7be2dcc8f0f0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3492,7 +3492,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>49f8bbac-0ba6-433f-878a-39fa4522fa85</t>
+          <t>19f93980-4e1b-4a5c-842b-5e076554ae8e</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3db92c40-0cfb-4b4e-81e7-4fa999eaefd6</t>
+          <t>fadbca08-5eb4-4323-828b-e94e5e40f61a</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3548,7 +3548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>dc0591bc-b8ee-4179-97a1-906e1cdb0c70</t>
+          <t>9c5d34d8-0ab6-44bb-9fb3-eb5ef0c44289</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3576,7 +3576,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>04a7eaac-dda3-423d-b228-c8431bba8261</t>
+          <t>205be968-1511-420b-91b6-37e8b99cc37f</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>349296b7-5a14-49ea-a163-eb7ceefe9326</t>
+          <t>f718ff82-55e8-484f-91da-8b22e0c8adc7</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3632,7 +3632,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>69f5d3d7-5878-4ceb-8644-312eeed8d712</t>
+          <t>8ddd1a43-af62-4902-af13-3115d4154a03</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3660,7 +3660,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ac6f7a2e-8fa7-4c00-9ff9-c003c8d813a6</t>
+          <t>f0a90875-9b17-4fd3-82c8-1f4e7b708098</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4c54c0b7-47fd-40f0-84b9-a60ee7ca5b23</t>
+          <t>750570df-ed19-4f98-a50a-5d5e9c76c9f2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3716,7 +3716,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>c96a03b4-bb9a-4ecd-a7fd-afba8558ba39</t>
+          <t>cdce689b-fc4b-4728-8aa4-1d0d352d5e01</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>d68ed834-fe62-420a-a160-735c42091baa</t>
+          <t>cf245984-5b63-49d5-94b5-a327f1f9491a</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3eb46843-c7e2-412c-bea9-be74b49c9104</t>
+          <t>cceef0a8-7fe4-44bd-87c8-6b0bcaec207d</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>5b92ad92-9c01-414d-ae39-d71887b1493f</t>
+          <t>159ddc76-f890-4e4b-a5ed-db4a4d4d6b6c</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>5b5156c3-e72d-4f62-b18e-02bb026748da</t>
+          <t>106d24d0-2749-4b46-969f-6bf6ca4208fa</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>203bddfd-942e-4ae4-bbd6-d49a80e39354</t>
+          <t>f6668a6a-dc4e-4a15-badf-886953a15601</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3884,7 +3884,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>392406ae-5890-4dbf-80b9-7b2525692b13</t>
+          <t>bf3e9b14-851a-4ad9-8fd1-7f8cba6b7d03</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3912,7 +3912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>899ce868-da8a-4615-bbbf-276ab75e6fc3</t>
+          <t>dcce9a4a-9cf7-4773-bdda-b8c8a9343246</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>45d185e9-bcd4-43e8-8adc-f2e49122f908</t>
+          <t>f6a40752-c873-4cf3-8c71-85bab0895940</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3968,7 +3968,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>82c96051-85b2-4ba5-8ff0-e5587876fa4f</t>
+          <t>e3937098-0195-4d78-b3f9-a2a7451276cb</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3996,7 +3996,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>e88333d1-af85-4f38-bd7f-7b195832145e</t>
+          <t>a934c226-101d-4f87-87d7-1556d2d16ba1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0f29aebf-eeeb-4017-ad7e-01f8396c72e0</t>
+          <t>a4185b54-be77-4858-a582-5595a606c907</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>a7b739f3-7d66-4061-a44e-0196a39c56d7</t>
+          <t>a0f41b8e-2313-468d-87a1-63250949ea94</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4080,7 +4080,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>f044814e-51f3-4fee-bf39-ee8c65dbe29d</t>
+          <t>61aeb628-68e1-4878-b32f-84b195a1d763</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>b28085cc-f541-4bff-a881-958779bb7dab</t>
+          <t>a112c7a5-868f-4157-8d18-892828e6844e</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4136,7 +4136,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7ad2e369-5831-40c9-8ac7-79324a5d70dd</t>
+          <t>a5acf392-3c4e-4071-8ca7-1519612aa27b</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4164,7 +4164,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>b18c2903-2cee-4323-9d63-275725532145</t>
+          <t>614e7088-164a-40ff-aff6-191d81326243</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1774786c-ee6c-4e58-8361-5b6561a8ac92</t>
+          <t>1d2eb701-e0b8-4ec6-8bf9-aeb5a0411008</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>72df85c3-87b2-495f-9959-d4d7e11d4de8</t>
+          <t>db473490-71f2-4e9e-85bb-ffa697d1549a</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>fcfd1eff-be24-410b-bf46-010ad1d03c18</t>
+          <t>070ed061-ae1c-4aba-8514-b379f229f7c4</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4cfcde97-25b4-42d3-bf35-5972a1aabbb7</t>
+          <t>154abaa0-5b23-40a9-82f9-b9c7ea593812</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4304,7 +4304,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>d0e7e666-b19f-4683-bd48-3f08143d556b</t>
+          <t>963dcbda-08d7-496e-9716-7804931d92aa</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4332,7 +4332,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>18b308cd-35b5-491f-bf1b-390fb26c047d</t>
+          <t>3cbcdf98-1d55-4023-a45f-13b3b25938e5</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>c3b3f821-bc90-42a1-8a13-8d7aa188b5d8</t>
+          <t>771973e1-4984-436e-a6aa-eeb5f752a18f</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4388,7 +4388,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>e52c505e-8122-4170-9ee8-8c07cfc7a4db</t>
+          <t>036dfa5d-1909-410a-9b30-342d5ff453dc</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4461b383-c5db-4593-87b0-20a05909a876</t>
+          <t>0d27e4e0-1b2b-46a2-9536-328791371694</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4444,7 +4444,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>c940eb2e-b062-416f-b5c3-ff5164b24947</t>
+          <t>604a8422-b83b-4fd8-9b6e-b1b41f40ca5b</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4472,7 +4472,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7d365d95-c620-4efe-bdb0-b9f3e1c8333e</t>
+          <t>81a0fe0a-ad83-49f0-9fda-ecfa3dc7e512</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4500,7 +4500,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>c9846dbb-9213-4aac-adb7-afb017b5a793</t>
+          <t>c0ffef52-c95e-4ae0-9a61-66ed2d521327</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>957066b3-af88-48a0-a0d1-22b04f6827ca</t>
+          <t>76576a53-4480-4372-b5f0-f2e60935de82</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4556,7 +4556,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>c39502bf-ba42-4ca3-97a2-494fad1e7cab</t>
+          <t>1165da64-e496-41ef-900d-745355929146</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4584,7 +4584,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ba5a8341-61bf-4ca7-83cc-64e2c664410e</t>
+          <t>8271c61a-4c53-4b73-bc1c-48c51da4881d</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2dcc8536-e0a9-4a4a-a929-2d80e713b041</t>
+          <t>c6bf69df-3474-4db7-8b16-a81dd1059266</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4640,7 +4640,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>bb5fcf8c-0067-42bf-89e5-edc2e777b17b</t>
+          <t>b13880fd-5878-4868-8df1-7c09d90f15d9</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4668,7 +4668,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3a3c6f1e-9db2-4056-b363-0117b3d1a6db</t>
+          <t>a5e6916b-b95c-443c-929a-d404c6fe0c7c</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6bdcc495-fb1c-4627-af90-36096fc6474a</t>
+          <t>26abcd22-3e91-4f26-a23f-df237d5f4c21</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0447f814-4200-415b-a2c9-976432b7031a</t>
+          <t>ff20eeda-cc57-49f3-bb92-b805fec69902</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0a208b74-6490-42a6-9eb7-6c46a7fcb877</t>
+          <t>13937181-3f9f-4b98-9250-815391341655</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4780,7 +4780,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>90796370-bf30-4689-8098-7776e9cc95e2</t>
+          <t>1bbee6c8-f8b1-4c30-93c5-17b1ebfb2bbd</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4808,7 +4808,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>385363ef-a57e-4504-a495-5951de916b37</t>
+          <t>d7c3389f-a2fe-423c-a7f5-f9760ddb41a8</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4836,7 +4836,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1449fb0a-5a54-4975-9318-3d6d6dec1adb</t>
+          <t>52095285-6f5f-4882-bc98-a40056d053fb</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4864,7 +4864,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>248495ec-01da-43b9-994e-9ce4964697dc</t>
+          <t>c2c03c4a-43da-4cc7-8a75-13b3a17a5bba</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4892,7 +4892,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>29835718-838d-4fa9-aa63-c22edf2394f5</t>
+          <t>26cffad5-70ba-471d-b59b-f7c0d0da642a</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4920,7 +4920,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>deff843e-f008-4a56-ade8-9084c126a876</t>
+          <t>ee65199a-1b8a-40e8-aa7d-d0f099cc17bd</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>7a8e0568-7938-4cbe-b695-a15c5dc06adf</t>
+          <t>a55222e3-201c-4e56-a65d-0f7048d803d4</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4976,7 +4976,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>764913ec-526d-4f8a-acf4-89b04c57e0d0</t>
+          <t>d0db838d-ae77-4b46-bec4-05357481b7a6</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5004,7 +5004,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>f098a9cf-deef-491e-9900-99e6d9899310</t>
+          <t>87d4ff3c-c660-4fbb-bddc-d6feabf74f6c</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1611f7c5-514b-4fd5-8899-cc34d78d7e34</t>
+          <t>dea44abc-2a0a-4e93-8795-eb0b4416a9d3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5060,7 +5060,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1556806f-08aa-44b3-bb75-cfd34d52e3ac</t>
+          <t>5e174d66-f103-49e4-afb0-4e6e99d9be2f</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0f35171a-bd0b-4d1a-8282-51b203efda26</t>
+          <t>d1db67e3-4828-4f59-9b23-f0c3c3ef08c0</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5116,7 +5116,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>93eda88a-dd30-4bf7-8108-b57f975be805</t>
+          <t>cc6038ff-2068-49af-a580-627c656c0cfe</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5144,7 +5144,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>a66d5abd-2d87-473a-9174-0d5da82d7c85</t>
+          <t>9873b253-a848-4187-8fde-a4f769b3814e</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>eb5fc91d-af8f-434d-a7e4-dba9354ef658</t>
+          <t>f0f5a6f9-554d-42d9-99f0-837497f80c3f</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5200,7 +5200,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>dd0ee9d3-1cc9-4023-8908-a24cb202eb4a</t>
+          <t>edb8ef3a-373e-408d-af25-ac82bd9793a8</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5228,7 +5228,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>225330dd-671d-4129-abcc-4052025e39db</t>
+          <t>03bbd78b-eabe-4ef7-82a8-3d0b4e563cb1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5256,7 +5256,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5ed4ce0b-4bef-449c-a10c-fc2ea4400cc3</t>
+          <t>ba55ff0e-7e35-4379-a3b4-1570994e8720</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2c79d7b0-2dba-4e22-8afe-db3ed46cd59a</t>
+          <t>8de194a9-be69-45a1-8320-f2557291e4d1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5312,7 +5312,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>01123bcd-f1a9-4468-bb22-64a7c52b3585</t>
+          <t>184322de-10e4-4fc6-9f4f-fb18a55c2725</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5340,7 +5340,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>9b26b382-0845-4da9-803f-4410dc079fed</t>
+          <t>1e31678e-895d-4bae-bc01-5da64d4c280b</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5368,7 +5368,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>bbcf592f-a4f0-4033-9152-097ce9bcfc45</t>
+          <t>54cb2029-1349-4ae4-88c9-72c84065201c</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5396,7 +5396,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2caa269c-62dd-44b8-9d55-e93ac68ce80f</t>
+          <t>7b7e053e-174c-43f7-9a06-dd7b917fd1ed</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5424,7 +5424,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>f8fc54bb-db01-4d16-9d65-63c120b379f4</t>
+          <t>ef9d8e3a-61bd-4d16-a8d1-8be4df79c661</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5452,7 +5452,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>bc53168e-3f4b-4c29-8f59-ee772a1de9ee</t>
+          <t>1cfcac92-d569-4237-8fb4-d5eb4345a87a</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5480,7 +5480,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>b7e458d0-5282-438a-b3b0-9798598cb4fc</t>
+          <t>f64af5b3-2cc0-4891-81ad-c8382a333c1d</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5508,7 +5508,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>a0a1de4e-795e-49b0-8cad-57378dea7b5f</t>
+          <t>1632e68f-53fb-47c2-8aa8-6a957cfcc8d4</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5536,7 +5536,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>b85cd9d3-2e9d-46c4-90ab-c86101bb3a6e</t>
+          <t>3ead1dab-b621-4ac9-b688-b232d9998a25</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5564,7 +5564,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>f586fea9-6f90-4d5c-ac6d-5e23ec307c9a</t>
+          <t>e22c5e16-f156-4e90-b923-c89f811e06e8</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5592,7 +5592,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>79bfc67f-a5f0-4442-b39b-20d971ec48e3</t>
+          <t>29de240e-1e18-49f9-91f6-1ad54215e107</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>822796bf-2079-4859-ad63-049a0cc7fc4f</t>
+          <t>648f9bff-5880-42a7-b5e2-fd703c7dd314</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5648,7 +5648,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>d51541ac-975b-4a30-b7b2-670fce6ba357</t>
+          <t>390315da-46ed-41a6-87d1-115fbcabb0b8</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5676,7 +5676,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0f5f0cba-0f01-43bc-9368-30efdc81facc</t>
+          <t>89e0c1d6-1e17-4a0e-a56d-b962a30b19ba</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>24d42121-5091-4134-9e56-3e911d25f6bd</t>
+          <t>c1cb6d20-5b78-440e-933a-8a941b859e5b</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>c6d98d69-9b43-4874-9f83-8e48393139c6</t>
+          <t>7e5eae5d-440d-475f-ab37-750594a7e698</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5760,7 +5760,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>dd187b29-8983-4758-a055-b58d9ecadca0</t>
+          <t>6849cdf6-71f1-4ef7-8bf6-3c54fa698462</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5788,7 +5788,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>e3cf6703-ffff-4d44-8938-a0eebf20e90e</t>
+          <t>550f91b0-afe6-4c84-985a-64837eef7d03</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5816,7 +5816,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ed68ee4e-4521-46c2-b949-e5fcdca9810c</t>
+          <t>0cdd8cb8-84fe-442b-9e1a-34af3169ac63</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1f62b178-ec69-4771-be99-95a58fee6a62</t>
+          <t>0a6e54eb-40a8-4d4b-8afc-d92f82bf26ad</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5872,7 +5872,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2b4013d6-4426-4ffb-9a1f-0600d64e6a28</t>
+          <t>64278279-07f6-4ef1-aada-3b0a9400a9fd</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5900,7 +5900,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>e7d42606-f887-47db-b969-1673943930aa</t>
+          <t>94cf19b5-8525-4198-8727-e07f112e0315</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5928,7 +5928,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>afecfcdf-71bc-43a0-a44d-e5aa7d51dbfd</t>
+          <t>327bb5a7-6acb-43f2-b336-447cfb825107</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5956,7 +5956,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>a3cf4c23-96b9-4987-a19c-f913d551874a</t>
+          <t>9701f798-8951-490e-82f3-32a724710d89</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5984,7 +5984,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1ea19352-4b71-4072-89cb-cc6be8ca10fb</t>
+          <t>66696912-42e9-41fe-8fb2-b5d8707e2a1a</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6012,7 +6012,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>c457e7f6-fcbb-43f1-9601-70ea718d139d</t>
+          <t>e322f817-e0ba-41ae-943a-b387a5ba98fd</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6040,7 +6040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>0fd4db86-2e4c-4c13-8de2-e582b0be4730</t>
+          <t>914dd744-fadb-4174-93fb-7107454785a9</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>9d2d6182-4875-4586-a3b3-7c870480b6c0</t>
+          <t>78806276-87ff-49ad-af63-1b8b2c88f0c9</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6096,7 +6096,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>c64c26f7-b581-4393-9997-4e6246803de2</t>
+          <t>ae958d93-4c46-4da8-a5a2-f2fe25d0c7ba</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>efa892bd-c409-4f14-81fb-0a1b0a7525b3</t>
+          <t>1ae7cb52-b58b-4885-b8f9-2d462df06b66</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6152,7 +6152,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>c46f7533-da3e-43f6-b782-9fdc0607f24c</t>
+          <t>ded2aca8-805e-4b30-9624-12fe8aecf6b9</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6180,7 +6180,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>c741cbbd-9402-4862-bf11-e0de35c0baf0</t>
+          <t>833d044d-ee54-4953-8ab6-caf84dc903b8</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6208,7 +6208,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>de673ba6-6255-4b93-8bab-8dc11b0f17c3</t>
+          <t>4ac7c745-600b-44dd-ba6f-d29e775444e2</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6236,7 +6236,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>a5d2a796-b3f0-4b13-9824-e149e683464b</t>
+          <t>7e25a7ad-7439-47c3-bc6c-c52e7828c8d2</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6264,7 +6264,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>67a22448-4f4c-45fb-b6c9-eff8c6ca9570</t>
+          <t>113ef2a8-50c8-477d-80ed-a8f6f42ac058</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>43fa31ec-a2c9-429c-b3a7-806f165eb92b</t>
+          <t>75b2eae3-8d49-4af3-acf8-175b07d10b3c</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6320,7 +6320,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>4e68edf6-69fc-493a-9c0c-15153822b3a6</t>
+          <t>b1a6e917-759b-45da-b573-d6c8cadb12b4</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>3200e5d5-a7c9-4633-99fd-6c780f36667b</t>
+          <t>98cb5540-c3b3-4126-9d8d-f4a12164eb9a</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6376,7 +6376,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>70b554cb-021d-43b3-9143-72e57d10ba2f</t>
+          <t>9341ead0-c573-42b9-ac9d-90950edd68c0</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6404,7 +6404,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>fd516705-32ce-42f5-915f-276b114aca7a</t>
+          <t>23f5fc92-bab6-4f9c-aef0-1a96a907d8e1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6432,7 +6432,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ab8e48c2-85c7-4386-ae0c-16afff841dab</t>
+          <t>e13f2be2-236e-4137-a7ec-036fb5852ba9</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6460,7 +6460,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>d6e8a787-b762-4427-be7c-142651e4f41f</t>
+          <t>fd4720de-16ca-420b-9fa7-63e6f6a17a8c</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6488,7 +6488,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>4f66da89-9ab0-498f-9e3b-b150114bc338</t>
+          <t>cb9b7f10-cb91-4366-98fc-233b7ba7aa3d</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>455d75a8-61a1-4b90-b38a-90a00cbc8a60</t>
+          <t>262f0a1b-6fa5-4dff-a7c3-008c9eac01fc</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6544,7 +6544,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>033608bd-e3cb-463e-a888-e3cf45b9bc57</t>
+          <t>b0913164-948b-445f-870a-bfdc6dfdf929</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6572,7 +6572,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>d34a0f0d-bc93-4513-863a-33b8fa2eb2ae</t>
+          <t>33f3b8ad-f464-4386-9fc2-3d5180173d90</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -6600,7 +6600,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>68a55b0f-bf17-4e19-8493-55e50c61e954</t>
+          <t>a717279c-d719-48bf-b972-7d5dca3c210a</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -6628,7 +6628,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>75774e72-94fe-4012-a4c7-368ad3500eb5</t>
+          <t>38562207-b1a2-48f2-be97-c0a58cb183c2</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -6656,7 +6656,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>87996b38-2c31-4306-9a15-b75b7dda73aa</t>
+          <t>c7dcf046-3df6-4602-b47c-8d49d0dea275</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -6684,7 +6684,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>141d51c6-b604-4433-8663-6810a4cc148e</t>
+          <t>b5678d41-84a7-4fbe-bcf0-abd18130bdee</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6712,7 +6712,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>16cf9604-a288-4716-b3cf-92ee9796fa1b</t>
+          <t>4e210ae1-f783-49d3-b6a3-25d1b49b15fd</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -6740,7 +6740,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>42f4e389-3a01-4e27-8d90-e46fcef82afd</t>
+          <t>5c6d2cd8-d301-4e2f-916d-28a3382269c5</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -6768,7 +6768,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>10d6d64a-1718-4279-815d-072dc30b9086</t>
+          <t>1b25f66c-5ea9-43af-b835-1f6904e2e608</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6796,7 +6796,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0e44cad8-0708-49ba-833f-f7c5d7a59bd6</t>
+          <t>37e56876-8b45-431b-afab-421bf50f10cd</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6824,7 +6824,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>74014746-8c7b-4603-851f-e1f02e17657e</t>
+          <t>3efc6711-8df5-45ce-8116-bfbef28db974</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6852,7 +6852,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>54dfd1b5-f3a1-4216-b0fe-926d1858af6f</t>
+          <t>9a20d998-4206-48ea-a60f-1cc7526b31f8</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6880,7 +6880,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>069768fe-563f-4a64-a400-1f73d7ba034b</t>
+          <t>ec1d17b2-fd87-4a2b-b9fe-218c177f4ca8</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6908,7 +6908,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>f62bfcdc-78bb-4592-a8f3-d01b1aa321f0</t>
+          <t>41885f2a-1971-4ac3-987b-8d73d70bdb90</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -6936,7 +6936,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>c2978a47-6a52-4936-abff-6d6afd7ceede</t>
+          <t>56d98df5-5901-4a12-a0b4-c38bbf6577f8</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6964,7 +6964,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>32ed65f4-3380-404d-95bb-9fa083bb982c</t>
+          <t>8f2cf9fd-04ba-4c84-b59d-7b69d952697d</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>e0ec016c-2f42-4447-ba72-3f3c018ab68e</t>
+          <t>e29f5ed8-5d33-4c29-8ade-1d4753b06d34</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7020,7 +7020,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>45c819ea-c843-497a-95f5-101d608fb52f</t>
+          <t>846e1cf7-ba4a-4766-82c8-3f2f64f372e7</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7048,7 +7048,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>71ea6f9c-cc68-4616-88be-e6bd95580872</t>
+          <t>5b3a7b4f-0f85-4951-b231-ec210db49ecb</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7076,7 +7076,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>f61f11e8-d91a-4f36-a171-120cc907e948</t>
+          <t>ffd1f01d-213c-4657-a0f9-7b0ce28b4ce4</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -7104,7 +7104,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>a3c847b1-c030-4fc5-b128-61d10d48087e</t>
+          <t>fe8bc773-b0dd-4bbe-aad8-fcd3ff89df8d</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -7132,7 +7132,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>e5570226-3b6e-4316-9a39-920411e0c5c5</t>
+          <t>9923c881-74a1-4d86-a3c7-4b378f16a9d3</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -7160,7 +7160,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0b57e67f-ec9c-447e-bce5-dd7ec8560fb9</t>
+          <t>2d08c3bb-1af6-4dc0-83de-27b273749076</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -7188,7 +7188,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>9c5738c5-5713-404b-9e7e-4bd923dbf0c9</t>
+          <t>fdbb9b09-eb07-4ace-8254-b6cee49ea1c9</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -7216,7 +7216,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>749bcf0c-c9c4-42a7-8520-250277756cb9</t>
+          <t>b689a6e4-90b1-41b7-b31d-285e4b9876f2</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -7244,7 +7244,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>b6221698-c461-4de7-99b9-de63830ca211</t>
+          <t>f92513b0-ff24-4edb-b8e3-2bd035b3bfe3</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7272,7 +7272,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>81c88aec-29ad-4659-aae7-9c1ccb682d0e</t>
+          <t>0aba5bac-7306-4da0-a511-60c657bb69f2</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2fc2ad39-a063-4fb5-add0-c1ba7a8ed503</t>
+          <t>5fd75577-d7a1-4daa-b49c-1b97f0089244</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7328,7 +7328,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>d0ffce08-312c-428a-8616-64745d847dd9</t>
+          <t>8f39f9a2-a7a3-47d0-be9a-baa0391fc95e</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -7356,7 +7356,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>d0d76cef-d0e0-458b-9d0d-64db23a1bdf3</t>
+          <t>6abb5ad5-e6c9-4942-8ac8-4e093f17a678</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7384,7 +7384,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>b2d24b20-749c-4d1d-9030-9b93ffe84bba</t>
+          <t>75ed77ac-e78b-4fde-8593-36e21f7446d2</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7412,7 +7412,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>dbe868a8-1e1b-4155-a978-c37f7352181c</t>
+          <t>1f15476a-810e-4615-9b30-52eef1adef83</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7440,7 +7440,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>d423a377-6a34-43b5-8b76-c89b4785bd58</t>
+          <t>785c00ef-465d-43d1-b862-10b9845963d9</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7468,7 +7468,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>c4033504-bef2-454b-bc61-e5f7432f868a</t>
+          <t>93d0ea8d-de28-4f24-9ba6-6841cc596342</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7496,7 +7496,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>be094f50-523d-420f-b933-1dc752dd5587</t>
+          <t>8689dca4-66bf-430c-95b4-dcd2203c59fd</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -7524,7 +7524,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ab4f5c64-cf39-45f8-a790-0a305425289e</t>
+          <t>16622dc0-4d99-4e02-93bb-521d34873510</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -7552,7 +7552,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>a833ce5c-37df-4e58-b6f6-f92b2f5775df</t>
+          <t>35394038-d466-4f06-8bf8-ca5f788ec675</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -7580,7 +7580,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>052dffeb-2ec5-451a-9f4f-bd4c428e5ac5</t>
+          <t>8969d286-b2ed-4a61-a6d8-726f0e3bc993</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -7608,7 +7608,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>e9ae457a-11eb-4c64-9500-09819be2ad86</t>
+          <t>8ff943be-5776-4bbd-8724-6e4dc44d3e56</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>f767a489-4106-4f3e-a249-c794470211a7</t>
+          <t>0e6940b1-e876-487e-972c-4f69be3c5313</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7664,7 +7664,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>26620d2d-76e8-4b8a-af8a-13032bcbf515</t>
+          <t>141b0404-08a4-464d-9496-4541df1c9722</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -7692,7 +7692,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>006469ce-dbe0-41dd-b06b-5f4873441b4d</t>
+          <t>ef10c1fa-239c-4bf0-826d-40623df85eb7</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -7720,7 +7720,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>a9c87aa4-864b-4835-b41c-a1d35e978891</t>
+          <t>00ab5343-120e-4d38-b312-6b5f4c0fb489</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -7748,7 +7748,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>bcb6434a-0568-43c3-978f-06b996fd77f5</t>
+          <t>6e4401b6-c931-4c58-9510-326449a6f38d</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -7776,7 +7776,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>eaf5e7f1-9dd7-494b-9152-8d6521a56eef</t>
+          <t>ee0f7214-be32-40c2-a1a5-38ef24b0ec23</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>3a4a2127-e88f-4abb-a6c9-929bc9146139</t>
+          <t>3a2edb6d-34ca-437a-aed2-cb82cfb3a044</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -7832,7 +7832,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1553e6d7-fe41-4683-a056-963d20118ae2</t>
+          <t>7d8f79be-de48-4039-9780-1d2363162915</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -7860,7 +7860,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>595bc0b7-4b42-421b-8681-c6b97fb4fd79</t>
+          <t>e27496cb-2a3c-4e52-b4c6-abb2302f47ea</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>600e6023-88f1-4fe3-922d-36b47f035512</t>
+          <t>0d4daca9-a3e3-456c-bb14-c03ce5a27462</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -7916,7 +7916,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>443b1f74-3be1-4661-a111-e06380398ca8</t>
+          <t>782d0ac8-b2a9-4afe-9bf5-61ff84a25d94</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -7944,7 +7944,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>5461d3a0-38b9-461e-b975-07abc6651155</t>
+          <t>3274ff53-80cc-40c8-829d-d3990e9264fb</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -7972,7 +7972,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>66358bcd-92aa-4ec7-a2ec-7edacb0e0747</t>
+          <t>9c3a9656-5144-4ecf-a755-a98697631f2d</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -8000,7 +8000,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>d83ccade-d91b-4f9a-9b0a-9c82b1ccfa39</t>
+          <t>5de1e4ac-ed8a-4536-a2d4-64aabf47c6db</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -8028,7 +8028,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>fa450cd8-671e-4ff9-8e99-a3b7326c6e9b</t>
+          <t>a61333cb-9e68-4a0b-90dc-b1690ca39de2</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -8056,7 +8056,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>04914075-fdaa-4c77-8f74-daee38f0534b</t>
+          <t>0a806a28-bad3-4056-94bc-74805f1fbc7b</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -8084,7 +8084,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2c9dddaf-feea-45bd-a41b-6e15b9f1dfde</t>
+          <t>f0526043-35ce-45da-9a3b-91dd3f869658</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -8112,7 +8112,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>0c99fc2f-5578-48de-bd1c-9092f626d03c</t>
+          <t>6c01118e-6cd9-4722-81d4-9f2451c2154e</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -8140,7 +8140,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>8a21dfd5-3fbf-4dfc-a6ba-886e07b4afb3</t>
+          <t>cb214a3e-c484-4672-b01b-b09aa4dee652</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -8168,7 +8168,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1d884a6c-92d6-4ec6-80ed-073b0a29584b</t>
+          <t>000ac030-4fb0-4010-b911-8019bc465749</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -8196,7 +8196,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1984f484-4a8d-44a4-9422-e7a4f4ed2b7d</t>
+          <t>eec51fae-6723-477a-9c07-a6fc763528c2</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -8224,7 +8224,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>f85c1fb4-21b6-451c-be0f-be024af812b1</t>
+          <t>df9eb1ab-e6bb-40dd-bf94-ab141a04d5f3</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -8252,7 +8252,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>637f85e1-5dc6-4edf-b633-cabee08cea77</t>
+          <t>bd372819-ceaf-4f82-943c-a330454f3929</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -8280,7 +8280,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>8fcb0d90-61b2-40cf-b550-c233a2fda56c</t>
+          <t>012603eb-4e74-41a1-a72f-5fde71e3ca35</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -8308,7 +8308,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>b4901d4c-e73b-4aa1-8c46-be140f684b95</t>
+          <t>142a5a1a-4ed5-4fa7-b916-e2483e989922</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -8336,7 +8336,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>0ae16f7e-0472-4a4f-809e-e1c8b8daa244</t>
+          <t>3f804926-7af5-44b7-9723-5cbc8a1d7937</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -8364,7 +8364,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6359e829-74ae-4d79-b187-46025346068d</t>
+          <t>61935546-2937-4179-84bf-2e8db4d90dd9</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -8392,7 +8392,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>776f0bf2-9a03-4f97-90cc-20c75c524f52</t>
+          <t>8ec8e056-46fa-48c3-ac5b-85fe00791487</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -8420,7 +8420,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>9330f646-89d7-4d45-a2da-4c13f7b572ad</t>
+          <t>860eec70-fe8d-4570-81ce-3cb8d3125ee2</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -8448,7 +8448,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>e669eb6f-4fb4-4ab2-bf25-a6d03251ab19</t>
+          <t>32525892-532f-4fbe-bd77-5f55d9a04012</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -8476,7 +8476,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1f293099-a208-4b8d-b4ca-d543a40f45b7</t>
+          <t>37379c01-6120-429c-b487-ce188dda0a6e</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8504,7 +8504,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>0071023a-7bf1-471c-962c-4600ca74c564</t>
+          <t>181014a7-deed-4af8-b965-b16875e56e15</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -8532,7 +8532,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>c4f1b098-0182-42ea-962b-901b07ebefb4</t>
+          <t>61c90dfd-5372-4eab-b1a5-dd0ca0d9cd3d</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -8560,7 +8560,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>3f5d007b-c65b-4e61-8cb7-3128ebb3a539</t>
+          <t>b086bd23-2e3f-41b9-a340-b6612346a90e</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -8588,7 +8588,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>f7e11760-1dd0-4d87-9933-1dddf24669b3</t>
+          <t>47584d3f-0bbc-4b6d-8f5a-ba3098d80038</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8616,7 +8616,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>d2951769-5c05-43eb-95cb-2a202f9bf2ba</t>
+          <t>36f11deb-3790-4b91-8557-2c5fa52b0144</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>a2f0a75d-6a49-400f-ae1b-ec36101c8c27</t>
+          <t>0de27c23-999b-4706-8ab2-37011a1b77d6</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -8672,7 +8672,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>5c96b9e3-6eb1-4cd9-b51e-2dd6e0f4b950</t>
+          <t>cbe428cb-83d6-4231-9904-a5034c1e4f83</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -8700,7 +8700,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>47ae0ad1-b179-4aa9-8c72-7bd0b9077779</t>
+          <t>f276ab3d-2d3e-4591-a018-b0484e9705fb</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8728,7 +8728,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6869cba3-9341-4b7a-9af9-bf31fb1d523b</t>
+          <t>b7369370-30c4-4d0b-914c-725f7e25248b</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -8756,7 +8756,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>18487fb2-3c4c-43d7-b35d-f580f859c09d</t>
+          <t>bc08f4de-b45a-40e1-a2b4-26b49f328901</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8784,7 +8784,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>d05e9e2f-cdd3-4c2f-b635-71597474533b</t>
+          <t>58c1005e-eb2d-45f3-ab9e-ecd5baf1f88f</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8812,7 +8812,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>3a3782c9-fec8-4d8b-b571-caa425e5f512</t>
+          <t>0cf509da-ad7a-4d2d-a70f-510709abc9ac</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -8840,7 +8840,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2fdf4951-a255-4fd2-a09c-e14f69ede0e7</t>
+          <t>ea0615ed-0635-44d4-b0a4-e711b1ad6417</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8868,7 +8868,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>5f80084a-7ae9-488e-85f4-a625fe0f21db</t>
+          <t>725c01b5-a8e5-4908-8bd3-46b4e4f657c0</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8896,7 +8896,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>dc2bf4b2-ecee-433c-b898-19d941cb1dd2</t>
+          <t>dddd953c-7da1-4672-af3a-5828f7c74a44</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -8924,7 +8924,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2f1fb07f-efaf-438b-bd74-2b6314d327d8</t>
+          <t>6d02521e-6034-4fb3-a4f0-461acdc94fd4</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8952,7 +8952,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>30247021-fe2e-4798-86ce-774b5a90181e</t>
+          <t>4b60151a-b153-4b58-b694-7d28174287a7</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8980,7 +8980,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>dc0fce1d-be68-42d2-b181-762ef68814f4</t>
+          <t>00a5e181-8cff-42d1-b0fa-e572e26b44bb</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -9008,7 +9008,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>bc8d23d1-2a9c-4688-9d17-2260a99372a8</t>
+          <t>57937e5b-510f-4fa1-b233-f7f93d5425d6</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -9036,7 +9036,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>976b19f5-5aef-4e1c-9fb4-ac5bc3337bdd</t>
+          <t>db48bba0-85ee-4abf-b926-add81ff73b93</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -9064,7 +9064,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>8de5939c-c00b-4469-aad6-83eac4239eb3</t>
+          <t>829d1dd2-555c-4305-b6fd-0a0c0d43ac75</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -9092,7 +9092,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>0293332b-6860-4788-9add-46db425e1e5c</t>
+          <t>53880292-4a43-48b1-a0d8-cad9ee43f5f0</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -9120,7 +9120,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ca08f788-5536-4af2-815e-bfe57dd6d3d9</t>
+          <t>3dc05206-e3e8-4aca-80b1-f4a6c97662aa</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -9148,7 +9148,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>44cb2771-3260-4833-9f0f-bad23e2a4489</t>
+          <t>76228afc-9b7b-4301-8486-34ebd78a5458</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -9176,7 +9176,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>a55c04ba-5d86-4073-8c39-63c31638d8d2</t>
+          <t>3b4015c1-46ca-4b3b-be41-9ebced55d74f</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -9204,7 +9204,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>3df5e41f-c7d3-4a3c-bfec-7130235a5613</t>
+          <t>58c2338b-bdd3-4345-a58a-fa66486012b5</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -9232,7 +9232,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1b63570a-deff-431a-84c7-96e1684356c5</t>
+          <t>135b9cd6-e423-4147-9f17-3039867aaedd</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -9260,7 +9260,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>05e40a42-9e65-420e-8a68-4915e5d12ab1</t>
+          <t>4ad2b87c-a609-458f-a114-b5025daaf03e</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -9288,7 +9288,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>8948f16f-59a9-4ede-a050-07af7122a528</t>
+          <t>05a36f55-06db-4b6e-8b30-0bf0890458e1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -9316,7 +9316,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>e7f959be-d807-4f79-87a9-e169363ecef4</t>
+          <t>96399a75-3cfd-410b-885f-2b2907a4549f</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -9344,7 +9344,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>9254e19b-4f0c-4a52-958b-de7ce212ac93</t>
+          <t>39b8f829-c191-45c5-a4d8-83cdfbc2c9bd</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -9372,7 +9372,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>f6cb9419-f881-4a8e-9854-0555e918f6fe</t>
+          <t>32ae7f2d-ad5f-4ce7-86b3-f0b75af590d9</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -9400,7 +9400,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>0c117662-dbeb-4173-a0f8-e761e54c8041</t>
+          <t>858046b4-17e6-4f9e-b7b9-364dc296749e</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -9428,7 +9428,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>f3f315ef-9295-4a98-989e-6cc5688c76a2</t>
+          <t>ef22c40d-a684-4977-8418-bb659ebc875e</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -9456,7 +9456,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>8ba31932-391a-4a6f-ac34-e0c07122741d</t>
+          <t>7511e49e-b9ef-48b4-9450-47c5c9209573</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -9484,7 +9484,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>4931989c-d343-44f1-88aa-a8608b910709</t>
+          <t>2d330eb9-021d-4946-9197-c544af5f6b70</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -9512,7 +9512,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>50f6c9cf-c52e-4e00-ae6a-a1aa5c7beb5e</t>
+          <t>a8d05242-f197-4f30-b4d1-e247921cdaaa</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -9540,7 +9540,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>97c6ea52-58c7-4262-845a-e624793b637d</t>
+          <t>5f71ace6-39d5-47fd-9a5c-bc19f46f0146</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -9568,7 +9568,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>b1429d0b-92c9-42a7-854b-ee1a65a65e38</t>
+          <t>bd3e02ad-46a3-49d7-8699-fa1e8573642d</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -9596,7 +9596,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>91e77373-822f-4188-8e59-8abe4c6cc617</t>
+          <t>63f464e7-1802-46a0-b251-257a0c48fb39</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -9624,7 +9624,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ef1bda53-f389-4b31-b159-452d26a19991</t>
+          <t>8bf01c3a-b510-42f8-8d0e-e24663e5beed</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -9652,7 +9652,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>d0325f2e-a0e4-4643-a150-639f1fff7ab6</t>
+          <t>3177c41c-b04e-4dca-b33f-ef2c6cc93ad0</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -9680,7 +9680,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>677816a2-f6bf-488c-a951-2267924a87c4</t>
+          <t>48007d5b-eea1-445e-9580-6e103738941d</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -9708,7 +9708,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>34d009da-415a-43af-8a57-4174cdd6063c</t>
+          <t>16a550e6-7dc7-42fd-9aa4-5719f2ab349e</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -9736,7 +9736,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>8bc37503-91df-496a-8c5e-3c65a1222f56</t>
+          <t>16ceca06-72ec-4e8f-b76c-e14c031ac109</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -9764,7 +9764,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1de4948c-046b-49d6-aa96-8e51d256be08</t>
+          <t>cf0c76e9-891c-4bb9-8c1a-5594cf1294be</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -9792,7 +9792,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>91e9f6cf-9b11-416a-986a-da80812e1a61</t>
+          <t>9ef61e1b-91ee-4091-92b4-c952348c6192</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -9820,7 +9820,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>8402c3e1-ef69-4c2f-8996-fb1a434443df</t>
+          <t>55b9b9ce-f13d-4aa3-a0e4-b47352357467</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -9848,7 +9848,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>da7afa9d-92a2-4532-98e4-0ef55d40305a</t>
+          <t>bfb814d3-75e2-4d6d-91b2-d7277f3dc629</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -9876,7 +9876,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>787a82fc-6575-42b0-a7d0-c1f4dd2f5b1a</t>
+          <t>94522122-b75e-4b6d-b5b5-da71147bb809</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -9904,7 +9904,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>d58b6d2b-f2ef-4cea-b409-192d71b86dc6</t>
+          <t>90a886b4-26d5-4e7b-9158-dc8848c7f94c</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -9932,7 +9932,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5b28966f-69f0-4f4a-a60f-f1d3ad4f94a0</t>
+          <t>ee536e11-e5f7-456b-adeb-fa194327914d</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -9960,7 +9960,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>682a3e11-e312-4335-9fe2-d0430a10fe8d</t>
+          <t>3f24d07e-e046-416e-bac3-b18d222ef232</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -9988,7 +9988,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>bb43c9ca-21fc-4740-ab62-63ad3cef1397</t>
+          <t>e61c87a0-0ac7-4d04-a040-134086f18b35</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -10016,7 +10016,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>3d4f503e-962f-40a7-8a52-7077448b4c7b</t>
+          <t>4c875383-ef4e-4cad-8fec-79cc991f1705</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -10044,7 +10044,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>7c8d3a99-f9b7-4c49-9f65-5280e464b160</t>
+          <t>3a337e82-434e-46b3-aade-275ce554a671</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -10072,7 +10072,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>566c4b11-c112-4b65-8494-46b1b3c2a906</t>
+          <t>89ce9d83-96f6-4f50-bf6a-00a6b4eef47d</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -10100,7 +10100,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>a02a5039-007f-4a73-95c8-230ff059a758</t>
+          <t>a2e6d813-e6c8-4ded-852d-6ee3d38dccf1</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -10128,7 +10128,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>d18c31bd-b7d7-41e1-869f-a9c5c0ff3f73</t>
+          <t>4f5ce1ba-8f2b-4673-b97c-6ccc998b4dd7</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -10156,7 +10156,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>a3475a12-7afc-439c-8626-25798a76d36d</t>
+          <t>a54c616f-6cbc-4fc7-bbfe-74cc6c4908b5</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -10184,7 +10184,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>38255ed0-37bd-489c-8315-5710f698a914</t>
+          <t>950bb5aa-645c-4540-9e28-55cbfe89a932</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -10212,7 +10212,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>f2e1dbb6-7fe5-4e0c-97c8-cd573f417195</t>
+          <t>b5a052e2-077b-410d-9945-5ae0d96d123a</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -10240,7 +10240,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>c6e53957-c0aa-4828-86e7-bb9065a25c3c</t>
+          <t>47b4c3ff-c1d5-40e5-b3d8-d49c3101909f</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -10268,7 +10268,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>f3ef75dc-b091-43bd-a797-9c2cd6ec6e3f</t>
+          <t>4b992e72-b861-4b98-8b12-2742ff5fe8d3</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -10296,7 +10296,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>338d1829-957e-4d61-a031-f0092dc17142</t>
+          <t>154980c8-5d3a-47bc-bb3a-af38dfed2e7c</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -10324,7 +10324,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>70bdf69f-94fe-439a-9030-b991827e5328</t>
+          <t>38fba960-ddc0-439a-9a51-9121e29cc8bb</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -10352,7 +10352,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>02bc4ec5-b67e-44a9-9d23-b298cfde2597</t>
+          <t>5540afd9-d6b8-4a05-8edf-16d5a99ed00f</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -10380,7 +10380,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>56bd430b-a487-412c-b325-07b5f6fed92f</t>
+          <t>2cadba63-3167-48c9-a06b-9b514c4951f3</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -10408,7 +10408,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>a539e9a0-f72b-4553-972b-18a0050a1456</t>
+          <t>70f58332-dab3-4bbb-bf2d-994463a28fb4</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -10436,7 +10436,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>e4641a34-5592-4494-acc9-e28ad0327be2</t>
+          <t>2095e25b-4a62-4e59-97c1-fa4ac5fdbb30</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -10464,7 +10464,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>baf357b9-3118-4c6e-9b12-9ecabd22c6b5</t>
+          <t>10e5baa2-4e13-454b-8ff7-706c513ac42a</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -10492,7 +10492,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>942c7886-4d8e-4cec-b3f2-ef24ced9c473</t>
+          <t>15588751-3ff1-439d-baf3-7455115d0554</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -10520,7 +10520,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>c6763197-a1eb-4e04-af24-0c0bf10ebb63</t>
+          <t>641f608e-e862-4a42-8363-992729259b74</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -10548,7 +10548,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>3f3ee5f6-15b6-481f-9b08-d9ab94bb77fc</t>
+          <t>58c36cc2-c4dc-46c3-8a6b-ea9a537b4eab</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -10576,7 +10576,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>699acc25-3499-4af4-a9f9-343194e57e9e</t>
+          <t>6b9b2de7-99d8-4001-a7a6-c5bd4e595a22</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -10604,7 +10604,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>80ed0f9b-ae8f-40c1-a790-4fc3918813cb</t>
+          <t>8ad29641-8bbe-476b-8d18-97f4dcf17e21</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -10632,7 +10632,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ff940674-ee52-4332-aab2-e77e76a9f264</t>
+          <t>ec1de8a5-6dcc-43d8-b708-c8f4294e376a</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -10660,7 +10660,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>7ef97944-9db3-4f2a-a8fe-c55feaf2da2f</t>
+          <t>090c4695-50c1-4b1b-8f28-bf0f1a60b3ef</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -10688,7 +10688,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6208d101-1ff0-4042-8779-668564a9baf8</t>
+          <t>7fdcfd09-00d1-4841-8e13-5f48301dc9f5</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -10716,7 +10716,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>3befc4b6-d8b0-49dc-b8de-dba8ca19a9c0</t>
+          <t>bf9a9f23-104a-48c6-b92a-276d490a6bfe</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -10744,7 +10744,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>8a39cd4a-664b-4253-bb77-6c8ee5f83def</t>
+          <t>aa835a2e-6a87-4415-8287-a263626f3b7a</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -10772,7 +10772,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>932125fc-a9a0-4e77-b0b0-39d7f26b795e</t>
+          <t>e650c3be-ba4c-4f74-a957-4f7013070a68</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -10800,7 +10800,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>21b583a0-590a-4e6a-b43a-85be6d986b7d</t>
+          <t>0e7f6648-8082-47c1-8e3f-951ed53f1c13</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -10828,7 +10828,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>90af3e9f-66b3-4da2-b1ae-298f759c96d5</t>
+          <t>50d035ac-f163-4b57-a4a7-7894229f0bac</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -10856,7 +10856,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>725564eb-2d52-48da-ae02-e79f63ce6f5a</t>
+          <t>6f8a35dd-c7a0-4b0e-8748-870df9c1f8ba</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -10884,7 +10884,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>94f69b0a-422a-4623-b64c-67a02a3cd5aa</t>
+          <t>9d0cd296-c79d-42e6-bab6-9b3fe7bd8f37</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -10912,7 +10912,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>04a5d439-720e-42f1-8f73-10c2fe624ce1</t>
+          <t>9c912537-b844-4c3f-8009-38b114888d33</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -10940,7 +10940,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>e41f3aaf-4d85-4c9b-bdb8-ab1893857786</t>
+          <t>c623f8bc-0c0f-4786-b9eb-9192af4278e2</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -10968,7 +10968,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>b58a9121-0b3a-4411-8742-7673031cf0bf</t>
+          <t>5a6157a0-cb21-4c35-ae09-23b6013f2540</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -10996,7 +10996,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>dcf9dd09-2d61-4198-8335-5a401ffc2099</t>
+          <t>352c6300-bfea-4980-892e-5c155d78a177</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -11024,7 +11024,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>c8077f6f-83fe-437c-bfd8-bfb373b57f15</t>
+          <t>a463e1b2-c53c-49a0-89dc-6611034dd14f</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -11052,7 +11052,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>3cf96cd4-ecfe-4a8b-af48-13fcc7a1c84f</t>
+          <t>3ac9701b-d3fd-4201-88da-0c9cc9c4da32</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -11080,7 +11080,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>12f4d28c-734a-493f-81b2-ad30f97911f7</t>
+          <t>f80da4de-206f-4e80-810f-97c76aadd24c</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -11108,7 +11108,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>8bd6d7ed-8de1-48f2-87c8-b06c1030fd2e</t>
+          <t>8dfc1a10-46ae-48bf-87dc-db782d77e7cc</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -11136,7 +11136,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>1c28f749-1723-46ad-abef-a895906f64e3</t>
+          <t>1d9a910f-3ce7-4f91-90c6-e0f87c3f811c</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -11164,7 +11164,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>c35aa5b3-5a94-4164-96bb-ede2b51340fa</t>
+          <t>8b857884-518b-4af8-a00a-4bcfbac2da14</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -11192,7 +11192,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>0175f6d7-7990-4488-bbb4-8b7da813f51a</t>
+          <t>7a733725-d11c-44c3-afed-8a3e7f50ebdb</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -11220,7 +11220,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>dace27f0-2bcd-41a5-96f9-c1aca9881d18</t>
+          <t>aef83447-d42a-4f68-af93-d7c1604180dc</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -11248,7 +11248,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>c53fbdff-ca7e-429b-8fc7-5676c5a884ac</t>
+          <t>0cbb5d32-95d1-4eae-8f4d-889ecc041697</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -11276,7 +11276,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>c3994013-495f-4b69-80f1-179f94cabc92</t>
+          <t>35ec5e89-d2e1-48ce-aef4-8ba1931f400c</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -11304,7 +11304,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>e79979e4-c6da-4c87-bbfd-adef6118a9fe</t>
+          <t>0faf117c-e58b-448c-967c-fde39f916cd3</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -11332,7 +11332,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>9ef9fcd6-1149-42fa-a863-f401063e1eb2</t>
+          <t>7b979253-0b6a-4bec-a9b7-c82c47a9693c</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -11360,7 +11360,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>432b64ed-b857-4bf1-a288-27bcad7d6f84</t>
+          <t>023d66f7-2ee3-4325-af68-8b0bd40c9481</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -11388,7 +11388,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>bc42cbe5-c18a-427d-8c06-54bf959b5fdf</t>
+          <t>ef4b87f0-22df-489b-8a4f-d64e5f2a3330</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -11416,7 +11416,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2a4771d3-530c-4408-bc51-d49490545ca4</t>
+          <t>c6a7aa5f-fe20-4ab8-9e59-ca1451c6f6ab</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -11444,7 +11444,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>593c31e4-27aa-4fda-bdf3-718d0796b5c4</t>
+          <t>5fab5b70-11c7-4658-a9fc-bbd18e8e34da</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -11472,7 +11472,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>9bb9b2fa-9cbe-4ca3-8618-810e8b30421b</t>
+          <t>e41b683b-28c4-4da7-b4cf-00a347c5f927</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -11500,7 +11500,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>78e5d5ef-73d4-4f68-a3e2-0dbff931e2ce</t>
+          <t>5109be74-2423-4b59-94fe-0b50a452dd83</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -11528,7 +11528,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>cc3bfa23-91a5-48c9-bd3a-fe2002ec68b4</t>
+          <t>84e7927a-7ccc-4acb-b18a-bc2aa591ac47</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -11556,7 +11556,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>fff0dc48-1a7a-4118-8ee8-2a6d7c9f9780</t>
+          <t>b64d274a-5d50-4110-94c6-d76d057b16cb</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -11584,7 +11584,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>edfe339d-b9fa-4f4c-984d-4b1f25e27f09</t>
+          <t>ffb2f60f-9573-4851-b4d3-1798f6f947f7</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -11612,7 +11612,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>1a31a522-52be-4cb9-aad7-28512140875b</t>
+          <t>2ad35cc8-1967-4f10-9699-4abc83651ab0</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -11640,7 +11640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>fbb988fd-0450-4ecc-9347-c93a53d96dc4</t>
+          <t>ff039df6-6449-4a1f-92a6-619d224905b6</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -11668,7 +11668,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>075e7f35-bcd5-4fe9-899e-9ee32ff5a945</t>
+          <t>89051abc-f1ca-4073-a5d8-723c533d28e5</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -11696,7 +11696,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>a30a0b85-de2a-4818-92a7-2edcb53d48aa</t>
+          <t>362daad5-dc2a-45a2-b744-25dd64ceb4ad</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -11724,7 +11724,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>8b38e6fe-90e5-4942-b872-73ae02aa11fc</t>
+          <t>94b7b65c-9911-4d74-9db0-a5bc5e9589eb</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -11752,7 +11752,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>862c126a-5217-417d-8950-90175909ae36</t>
+          <t>a576d297-825a-47eb-9daf-48f19e06e73f</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -11780,7 +11780,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>b792dd52-8b43-4113-8352-6c49b79b7b93</t>
+          <t>654fcfd4-9844-4e23-af0f-45fb92fe1ea5</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -11808,7 +11808,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>e49a1051-fa51-4886-a433-a0eb929f3b98</t>
+          <t>28fa1cc5-99d3-4e43-85d9-d9fd0d25b94d</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -11836,7 +11836,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>10a9fb60-6f15-452f-9a6a-4bfc2c5cb66a</t>
+          <t>869d81e5-2573-4907-b19f-b624179df501</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -11864,7 +11864,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>076a6467-c7a7-4812-8c99-012000ca892a</t>
+          <t>452a7769-6b73-40d8-9221-17155deecc56</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -11892,7 +11892,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>b651d007-3984-46eb-9fdf-b45a7a9b21c9</t>
+          <t>e9521328-c503-4aa0-84f7-2ef56309252f</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -11920,7 +11920,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>70d1ad26-5633-4c8c-bd6b-4810c2864825</t>
+          <t>df965a58-7c5b-4926-b7af-7ce491049685</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -11948,7 +11948,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>edf98b7b-d277-4b84-9cae-d9b12b84c1de</t>
+          <t>653c8108-a2ca-49c8-93d6-f160fa8ad1b5</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -11976,7 +11976,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>00854677-5a0f-48d4-bfe1-5c5906eb9ef8</t>
+          <t>9645d5e4-9304-4f12-8831-77c20fc57e53</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -12004,7 +12004,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>135e614d-c8f6-4661-87f8-d24d7446ac5a</t>
+          <t>83ed6cd1-b717-4461-8581-8e1dcd5d8d63</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -12032,7 +12032,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>4c8510d8-1ce6-4a5e-ad41-fcf3409c8bbc</t>
+          <t>92ba977d-625b-4212-8786-e6cfb5a26adb</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -12060,7 +12060,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>63905b82-e697-45c4-872e-8f0eaf538c8d</t>
+          <t>dd66d48b-45c1-454b-9f81-51ad2800924b</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -12088,7 +12088,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>a27af367-e553-4c02-bdcd-6f0964d91deb</t>
+          <t>a0beab65-295e-42d7-9937-d4eb821511f3</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -12116,7 +12116,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>c6f1e035-90ec-43b4-bf78-a7718228925d</t>
+          <t>ad12bfcd-2d2b-466c-93eb-a4080a308015</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -12144,7 +12144,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>61305b4d-aaca-4f6c-8ceb-1b0a69fd7856</t>
+          <t>196e890f-28ba-4153-aff6-7bd474db78dd</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -12172,7 +12172,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>bedf6129-75f5-444f-a1ca-3a622e2a3a13</t>
+          <t>3bde93f6-c341-4e08-bcb2-1d31f23ef29f</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -12200,7 +12200,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>63753ba0-c3c5-4895-b65f-f8e1dfedb502</t>
+          <t>459a137f-4351-4705-b1b2-aa303de5100c</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -12228,7 +12228,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ff45cd2e-fa67-4771-b552-42c63d0438e1</t>
+          <t>65e73a84-b596-48ce-a175-7e5d9b9a5108</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -12256,7 +12256,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>c4fcde09-e42d-486f-90fa-d23e4fcdbb3c</t>
+          <t>dff28b25-df4c-4e51-8c2c-76a869cf5c97</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -12284,7 +12284,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>0fac0c61-c9dd-4715-92bd-c955b3037948</t>
+          <t>376009ef-024c-47a0-bfee-f8aa72b6ad30</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -12312,7 +12312,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>7312530e-191f-4b7c-a433-ce5a805aa035</t>
+          <t>173ce93f-350c-42b2-82cc-0d6437adf7e9</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -12340,7 +12340,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>0c9a6379-9e16-443f-a9ae-8b934e8e984d</t>
+          <t>0ec1c9f3-5863-4227-8cfa-a85345e7ff48</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -12368,7 +12368,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>0d8990a1-1ec9-4de5-8e79-dc239a094875</t>
+          <t>c23498e7-16ce-4a1d-b020-60a94d81ec66</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -12396,7 +12396,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>07258ce2-446e-408c-b555-566426656947</t>
+          <t>aa3f064f-c8c6-4128-a4b5-4d5ad9377283</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -12424,7 +12424,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>34a13243-e866-4154-8518-5a66a2ab61d9</t>
+          <t>1118f5fd-272d-4e8c-8d96-5f5239cb03bc</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -12452,7 +12452,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ae1f474a-f4dd-43ce-9d20-af41caa1fcec</t>
+          <t>c0113234-754e-40fd-b482-7dbfe51dd351</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -12480,7 +12480,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>c9af85c9-3bf3-42a3-b1d3-86d909c2e2b5</t>
+          <t>53829440-62ae-4152-bd0d-5f19d201088e</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -12508,7 +12508,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>8c774941-05fd-4a2f-822d-67c7181f64f5</t>
+          <t>71922988-e5aa-4190-af64-01695abb67dd</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -12536,7 +12536,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>a1d5af90-9332-4904-9ac2-84a779dc6489</t>
+          <t>531dda29-d4ff-463d-8c7b-ef3d46ce968b</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -12564,7 +12564,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>23f396cc-4cca-4ad3-bbad-32f2f9b7e6de</t>
+          <t>e7491352-ef21-46cd-9c06-86883eae3148</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -12592,7 +12592,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>52f854ce-c5ca-434c-9b91-af6bbb4b94a5</t>
+          <t>f5783836-0e4d-427b-ad65-6f3f499adef4</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -12620,7 +12620,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2c3578f2-56df-48c9-ab05-a1aa4078184a</t>
+          <t>671e08ae-edfa-4044-aa90-fb6457ad075f</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -12648,7 +12648,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>279caec3-b119-42f4-b5c1-3307663c7ce2</t>
+          <t>d4957bdb-e9f5-47ea-8f73-ea7fb9ad8b48</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -12676,7 +12676,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>1fbcfb1b-c7d3-442b-9916-a65d31dd21b7</t>
+          <t>b62c7358-797e-4535-9345-c4c79ea6535a</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -12704,7 +12704,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>d72bc33c-260d-46ac-9ed0-f79e542516b6</t>
+          <t>73dcab47-9532-46a1-8f9b-281b89942c60</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -12732,7 +12732,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>b5fe093c-e222-489c-978e-fd93d28693de</t>
+          <t>2d84b4e3-3850-42f1-b4d4-294a50531e38</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -12760,7 +12760,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>0b124b9d-53d9-4bff-88b3-ac9afe86f401</t>
+          <t>a9631421-2014-4372-bbe3-4b4f068ba49a</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -12788,7 +12788,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>79f8c728-6c5a-42c7-ad35-6821e6c3a215</t>
+          <t>189f3e6f-5839-4bf5-b682-27c208822068</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -12816,7 +12816,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>975fb4a4-5f5c-4a62-aed7-491fa4b3f584</t>
+          <t>7e864932-18b4-4c29-8675-eec984dd79c3</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -12844,7 +12844,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>48c3176f-6400-42d2-b0ac-8227e0ab3aa6</t>
+          <t>7dff031f-230f-44c5-a33d-2b63cf9a7f73</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -12872,7 +12872,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>22118594-b9ec-4bf1-a9ab-3fac17a22a05</t>
+          <t>702d4387-00a4-493f-a13c-0d17596e8277</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -12900,7 +12900,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ff363a1d-ec83-4a86-a900-21e5284ae905</t>
+          <t>47a62caa-7aa3-42ee-858f-f2b45a5d09e8</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -12928,7 +12928,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>f0f13b3a-961d-4c23-a116-0850100b6d7f</t>
+          <t>67cc1e0c-a4ef-4808-9841-270aa55d8903</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -12956,7 +12956,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>e0215e0b-d216-4040-abe2-5e789f035b49</t>
+          <t>9555b739-9cc0-41f9-acc1-bcccd249c379</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -12984,7 +12984,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>308f28f6-4f0c-4bee-b002-a208b8c565bd</t>
+          <t>84ac6fde-7b1c-4cfb-ae2b-0cdc9bf3e0e4</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -13012,7 +13012,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>8b70cd96-fcab-4f1e-8de5-f4d05a51c64c</t>
+          <t>ce67d570-fc41-41ab-84dd-4f5f125a751f</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -13040,7 +13040,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>3f1970d2-6360-4604-8a38-2d4c2274ee24</t>
+          <t>ec6970f7-5d7b-48bf-9421-c3f6daf9a0f0</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -13068,7 +13068,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>6488f1fc-a425-4556-9aa4-99cad3025b32</t>
+          <t>9b0a5d4d-82d2-4040-b0b9-c7a00b4ea564</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -13096,7 +13096,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>12b888d8-d7f5-49b9-b5e9-d21f78bbdefe</t>
+          <t>f2b013a5-5b4e-4c00-9c3a-a8bfce649451</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -13124,7 +13124,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>f63dff75-7777-473e-b325-8e9b8a6be782</t>
+          <t>5d3a9359-bf96-48fe-b387-1cd15dfb7a5b</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -13152,7 +13152,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>08f39b63-73d5-4719-9194-a70972aebd9d</t>
+          <t>d4ebc9f4-f045-431c-88ad-bea28afce950</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -13180,7 +13180,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>f3da22d7-8c98-4bf1-8865-652e9a867986</t>
+          <t>6110ab4b-5e13-4ba8-98c0-7f5453130dfc</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -13208,7 +13208,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>b5b5c0b6-d358-4bbe-9704-ae79dfd31319</t>
+          <t>342181f6-1f81-418b-9e19-87d940e8f848</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -13236,7 +13236,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>c4b8c080-5842-47ae-8d8c-0bca35a8edbe</t>
+          <t>b6d43afc-b01e-4a32-afaa-4d23716b0ce3</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -13264,7 +13264,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>b3c306b0-b314-4347-9649-a729623d0604</t>
+          <t>1a2cf850-ff0f-4087-82ab-3e1d4ec460c2</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -13292,7 +13292,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ae529fac-7b7d-432c-b8e7-984688fcf9ec</t>
+          <t>3693cbed-2cfa-4e51-b91d-ae8c1e3adb93</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -13320,7 +13320,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>1ccb69c6-df25-4245-93ed-1048ddc963a7</t>
+          <t>5365d0ce-c486-4258-bdfc-6b43a5559176</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -13348,7 +13348,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>4bf273e8-9f86-4630-b999-4e243bb8f742</t>
+          <t>a4ab98e9-936a-4b41-b3ae-3fb4ae052615</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -13376,7 +13376,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>28a856f5-5a01-4afe-8aac-430ec94228bd</t>
+          <t>87a83e80-960a-4aee-a1c3-1713b4c82dfb</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -13404,7 +13404,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>fcea9c18-f940-4d6a-a3ca-e8cade28ebf5</t>
+          <t>8606e686-2cf2-4e6f-bac8-cb07aed6cdf5</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -13432,7 +13432,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>8b9386d8-cde8-4a5a-a49b-6528a662aaa7</t>
+          <t>318ece66-9f88-48bc-9e1f-6046c488acda</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -13460,7 +13460,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>74ea3cfc-9bd9-47e0-8a63-5ed9fb5fa373</t>
+          <t>68f497dc-d305-485b-996c-1c74277da6c4</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -13488,7 +13488,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>f801ee4b-aa40-4706-adc5-b095d27f56dd</t>
+          <t>f7fc022f-bb8b-4cf3-af54-43d8a8bb64ab</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -13516,7 +13516,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>5f4ee12e-c2ec-402a-b347-d7eb65f84d91</t>
+          <t>3e69fb0c-3781-4201-9790-541ac25baed7</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -13544,7 +13544,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>851d9e57-d077-49c6-89b0-83c1622ca26b</t>
+          <t>d075e8f2-4d7f-49e0-a8cc-4de7c70ccd9c</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -13572,7 +13572,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>9c79aeb0-1419-492f-9670-110ee25ef920</t>
+          <t>443b6e54-0876-4a8b-a764-31f901119e71</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -13600,7 +13600,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>a15241c6-4398-49c2-9170-9d31631f10e1</t>
+          <t>f48b8a29-ceb6-4913-991e-d51ab136a89a</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -13628,7 +13628,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>8b8b5582-b235-4095-b1f3-406f36a5b143</t>
+          <t>f340eaf1-b95f-4107-8453-17917906b219</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -13656,7 +13656,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>16988ab9-b7dc-4242-b150-399ba6391e37</t>
+          <t>07b2bdb3-2802-4a9c-b874-f8fd7af82614</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -13684,7 +13684,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>37594821-6478-460a-891d-6262e551d6bc</t>
+          <t>0f4c5fc7-ce8d-4680-afa6-b2f2fe52a38b</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -13712,7 +13712,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>b9be4bcd-d2d7-4dd5-a0e8-dd620663b56c</t>
+          <t>9ca75254-9ddf-47ac-987d-d83f396da2f7</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -13740,7 +13740,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>d2e13cb4-4b27-49a4-8722-ff88357e0515</t>
+          <t>e47235bd-bf38-4966-b553-3a805132953e</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -13768,7 +13768,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>30afc3de-6bf8-4527-897d-cc4e0af36969</t>
+          <t>5eaf2d2c-9338-46c5-b7f1-7ba239d52811</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -13796,7 +13796,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>66d5286e-054a-4566-9fc1-cb23fb519ebd</t>
+          <t>9f6ec7d4-5fb0-4786-b326-00188b25477c</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -13824,7 +13824,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>6d135fe0-a545-4562-acf7-632c4e69ac77</t>
+          <t>c907fa15-2e58-4c4f-ae8d-3d20e04b1afc</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -13852,7 +13852,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>8d48847f-fd3d-4909-b309-bea49e5b44e1</t>
+          <t>f6bc7300-d0a9-4a25-9f3b-226a77dbd686</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -13880,7 +13880,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>6f9fab45-172b-4999-9dc6-bb0cd9dcca24</t>
+          <t>033b20b5-ff88-480b-9f4a-f55ca81aa5d2</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -13908,7 +13908,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>200647a5-f0f2-47a6-9c49-f3c5d1c29185</t>
+          <t>76e83178-c6c1-40e4-b6c4-0444402fae79</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -13936,7 +13936,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>307da569-84fd-4da3-82f3-fb03ad78ba0e</t>
+          <t>3d98beef-c920-4cf3-b1ce-c9c8f17808f6</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -13964,7 +13964,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2837b694-5c42-4d2d-a8b2-c2c637579f11</t>
+          <t>ff732229-569d-4fd9-b9de-126bd8fd29d0</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -13992,7 +13992,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>6e69efed-5e37-4ef1-a16c-f7abdd6cdaa3</t>
+          <t>08bc1883-a7e6-4c98-9f3f-3ab03bb2f796</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -14020,7 +14020,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>e7fbccb5-23cb-4fec-8eaa-9c1af12ab7ea</t>
+          <t>094aa0ee-9672-41d5-ae69-fb7751d58816</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -14048,7 +14048,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>481e023a-9570-433d-beb9-333930707983</t>
+          <t>7932d7c5-79b5-445f-8c4e-b22d63d2287e</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -14076,7 +14076,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>61078283-910d-456c-98c3-99a453e3e924</t>
+          <t>37ecd850-35cb-4b6f-a717-4192a69f1726</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -14104,7 +14104,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>c06b4a72-2f04-49ba-bb92-398df52295ee</t>
+          <t>338d924d-2212-4cf4-8329-8d71a370c6f4</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -14132,7 +14132,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>9ad5ca02-97c1-4265-8184-bd343b757a7c</t>
+          <t>d5bf8a68-aa89-4d38-bc49-2a1d3336a254</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -14160,7 +14160,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>3d01130c-bb03-4c61-92b7-4e9e661e7b41</t>
+          <t>4679d824-c81b-4613-a230-71758ba1994d</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -14188,7 +14188,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>c9977342-e967-453c-a392-e7162356b4e6</t>
+          <t>32eb3a6b-c459-4c14-b3ba-8247dbae895d</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -14216,7 +14216,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>0979e44b-6207-4a44-abfc-f412d03e5b59</t>
+          <t>872bc0c7-38bf-41fa-826f-6572dea693bb</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -14244,7 +14244,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>b0cf49c7-143a-4ef3-84d7-4082e4ab901f</t>
+          <t>f7fe004b-2c5d-461f-85b7-691412adeaa1</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -14272,7 +14272,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>acc10a05-3d5c-4673-9ec1-71036973a98f</t>
+          <t>14f1cd4f-0624-42ad-b01b-56ebf91db9cd</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -14300,7 +14300,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>bffc7985-4231-47a8-a037-c9b9ff30f091</t>
+          <t>71f6bd38-c410-44d2-a1ec-028c48a0f14e</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -14328,7 +14328,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>367fcaf6-a37d-412b-ba3b-579c951f140a</t>
+          <t>0423c1f0-9deb-4175-a3fb-66d20e7c4410</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -14356,7 +14356,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>aea98e55-b3e7-4eb8-8e88-5c3ad2fee2bb</t>
+          <t>471ddfce-606a-4dfa-97de-535f903bcca3</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -14384,7 +14384,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>7306d6c7-4dae-40f3-8eea-79abc0a7544b</t>
+          <t>cea2c2b4-ed86-491d-b6b6-fe1fe3624c53</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -14412,7 +14412,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>bd105141-bbfd-462f-ae02-a81c5023496a</t>
+          <t>19e416d9-08dd-4a3b-9d64-8a5cc7a394ca</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -14440,7 +14440,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>0744a62e-a383-46c8-a9dc-97b537b282f7</t>
+          <t>7dcb1640-df93-4b22-be56-cc550cd3f26e</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -14468,7 +14468,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>272aa3d0-52e3-478e-9a8e-d46b437699f1</t>
+          <t>ce6e95a9-d5f6-4b16-a1d2-85646892caf8</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -14496,7 +14496,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>f0f6ecd3-2955-4419-86e7-c4be5bd8abcf</t>
+          <t>2017926c-748a-473b-a8e8-2476c8dfbaa6</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -14524,7 +14524,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>fc5b0103-c212-4c6f-8d5b-fc21501755ff</t>
+          <t>52a72027-7501-43ae-9b34-b96d8ac12973</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -14552,7 +14552,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>82ffb453-9779-4ac2-a0c5-ff6769164562</t>
+          <t>358a8dc3-4f6a-4da9-b971-fed99bb7e166</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -14580,7 +14580,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>4d1ae02f-765f-40fe-b0c6-a64222bdfd19</t>
+          <t>d914810c-ccdd-4b2c-a44b-27203781c156</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -14608,7 +14608,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>531f580c-ed6c-4230-b511-0d106485b2a3</t>
+          <t>8684d4ad-d538-4c6d-8530-3f42d1f657ba</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -14636,7 +14636,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>4a1980ed-d73a-44ce-aa80-c1ba276f2595</t>
+          <t>20d62a16-6d20-4a72-8790-d370e42e617c</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -14664,7 +14664,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>c4bdc7ba-99f5-4f27-94a3-44d458155b74</t>
+          <t>c20aafab-7a63-44ae-8829-6227a60f155b</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -14692,7 +14692,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>03a0ca78-e9aa-4689-b38f-aa4f62d61d43</t>
+          <t>02fda3d5-7959-4497-a54f-39dcaf97e7aa</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -14720,7 +14720,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>6a1ef9aa-39a4-4dd0-a552-eee41831c115</t>
+          <t>a5739f3d-7dd1-4ff4-ac00-6ac2c13f0a37</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -14748,7 +14748,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>c6a5682f-ba59-4ddc-ad59-fd5549d943e2</t>
+          <t>92cc1ebb-6a4a-42ce-8ed1-ffddda7508d1</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -14776,7 +14776,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>3495b30f-a927-420a-b891-9a6bf4d51b6d</t>
+          <t>3ed0c1f9-f2ef-4a01-9338-ac45168dda98</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -14804,7 +14804,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>997ce519-cebb-4f13-bc54-5af2c9f6c409</t>
+          <t>f915b884-e907-4117-afc8-e9f46536c8ce</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -14832,7 +14832,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>7ca0f230-a6af-4c0c-a9d9-6e6cfd0bb1e9</t>
+          <t>1418ad5a-2e32-4290-aabf-7ddd4789842d</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -14860,7 +14860,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ccfe55bd-8a4d-4950-becc-c808f445f9b5</t>
+          <t>d0f332bf-3e30-41bb-97c3-8693fbcc4cc5</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -14888,7 +14888,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>7609c3dc-65d6-433f-abbb-85dbbc1037b8</t>
+          <t>51625a0c-63a9-437b-b1ff-f1841f4ab291</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -14916,7 +14916,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>7b79c6a7-8ded-45fe-be8a-9d25bdf732d8</t>
+          <t>fb18ce71-25e4-43e6-ac2d-3265176201e8</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -14944,7 +14944,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>a8207a2b-d850-4135-ab9e-ecb317b26329</t>
+          <t>7d76e6f1-f8cc-473c-bba2-c69a781ce286</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -14972,7 +14972,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>7f2033a5-3133-4b34-8cca-436e70b08734</t>
+          <t>91d7a071-e55e-41ac-9e7c-3af762e15317</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -15000,7 +15000,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>c21209ed-cd9f-4517-ab13-506aed44e778</t>
+          <t>6ee6518d-d898-4d0b-9431-c9816d64984e</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -15028,7 +15028,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>7c357ef6-8d3f-44da-8afc-cfe8336c07cf</t>
+          <t>f55ace10-2131-4daa-b049-2f0a6fa24ed6</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -15056,7 +15056,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>b847ca91-7322-49d6-b3cb-aab35a36cefb</t>
+          <t>09afea09-7836-46d5-ab40-88eef7bd61f2</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -15084,7 +15084,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>d3d5e4cf-de0f-426f-8607-12859d8e1169</t>
+          <t>45366f35-4c54-489f-be8b-a0c6e420fef9</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -15112,7 +15112,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>17619c06-abd1-4f55-be0d-f2277f70b056</t>
+          <t>b3141485-28c4-47b5-b0bc-454b9797bcad</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -15140,7 +15140,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>b9837881-79e2-422d-80f7-c1e319505dc2</t>
+          <t>320687ff-5189-4f30-8769-21b516a60d05</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -15168,7 +15168,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>4e5169bf-4be5-4d4e-9bf0-15b7360d183a</t>
+          <t>e068226c-9bf4-4c1f-b818-347c3d1865b9</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -15196,7 +15196,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>27782323-1ebc-4d9a-be0d-c1a6b0d30760</t>
+          <t>61e195b3-c423-493e-b3ed-660154043a11</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -15224,7 +15224,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>5d5e6575-22f1-4138-9abd-7fdf80d65107</t>
+          <t>c62fe598-0bef-460f-b601-0db10262ed5c</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -15252,7 +15252,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>50ce3dce-7a42-4ccd-bf97-6876689edf07</t>
+          <t>7e75b0ad-540f-4cca-a168-a3c5d8b45570</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -15280,7 +15280,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>1682ad9d-a390-4ef6-9ae8-2e7130db2a06</t>
+          <t>8a93077c-15d5-4e9c-96e5-9db0a7cb6ef4</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -15308,7 +15308,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>f4109b82-20c9-4371-a552-789dd454326c</t>
+          <t>4a78dd6c-cab1-4020-8d9e-f9294029bc90</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -15336,7 +15336,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>00d1f2b6-d0e7-4b9c-b734-e0efc923b5e4</t>
+          <t>e258e918-5b60-48ef-ad01-286a375c215e</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -15364,7 +15364,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>72a0fc46-13ed-4957-adc7-64e1635a5b9c</t>
+          <t>ac6db50f-de21-496a-a940-07758aee7b9c</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -15392,7 +15392,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>c23fde30-c872-4dca-b52f-115269f2f253</t>
+          <t>9bdcf134-59f7-487a-a29f-d85db42468e6</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -15420,7 +15420,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>7749056b-a3d5-43af-af00-1f23331976af</t>
+          <t>97f89ec3-e790-4ee3-b91e-87cdba4be540</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -15448,7 +15448,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>98295f97-b88d-4fc7-a37b-e128da96e414</t>
+          <t>59514f83-7646-4267-bdf9-8b1e74c7f030</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -15476,7 +15476,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>be02453e-d887-44aa-ad17-caca27ce3a8a</t>
+          <t>dfc92309-45bd-483b-b96a-09e340682858</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -15504,7 +15504,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>f1e5d34f-1dbe-4d08-b07d-a007a7dc41eb</t>
+          <t>13988b25-e742-4c14-9f18-f971952af179</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -15532,7 +15532,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>4f5422d5-02dd-4f17-bc80-111bc18a5cc0</t>
+          <t>a542d51f-bc38-4c3f-92fc-166f4199def4</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -15560,7 +15560,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>af869e0b-2e93-4636-846d-8aee92594bd0</t>
+          <t>39bc71d1-fb77-41d6-8136-3ef3f27d222a</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -15588,7 +15588,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2570a864-5c5b-495d-b8c3-69831849d4f0</t>
+          <t>378aa4a3-061b-43cf-9832-25c22fe93cff</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -15616,7 +15616,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>007b351c-6299-48cc-97f8-1cd7fbcffe2a</t>
+          <t>49a276ea-21d6-4e50-b8e0-55433f9f1d6d</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -15644,7 +15644,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>9d323649-914a-46ad-9c89-98bdd0a68644</t>
+          <t>1fd1b96a-f99b-4dcd-ad14-c9305ea9c9b2</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -15672,7 +15672,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>f85f60bd-56c9-45f5-928b-6f3d182b1ff0</t>
+          <t>42a200b0-9a30-4d77-b839-9561272799cf</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -15700,7 +15700,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>9b0ec7fc-8efd-4485-afcb-b5feff2d5d84</t>
+          <t>eb2e24c6-9b76-4007-8b23-6aea85fafd64</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>78ec7d8c-7a1a-45c7-a875-b3b4d0317c26</t>
+          <t>6e9730b9-beaf-4dce-b365-d2a4529af30d</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -15756,7 +15756,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>97c5e028-7ce1-4cd9-98e3-491b5c45c25f</t>
+          <t>cd0b84d3-1ff8-4c9d-b08a-e70c90532173</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -15784,7 +15784,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>e92c5d68-6d68-4816-8151-dec14c65a0c2</t>
+          <t>d46c8361-817b-4601-a38f-ba3a38c5ba6c</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -15812,7 +15812,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>863b9c49-b3f9-4ffd-b1af-b95cc9e16efa</t>
+          <t>d452e7f3-e68f-441f-9f51-d7188c3eba32</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -15840,7 +15840,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>37140749-3a2a-466a-b13f-ccf1f19f474e</t>
+          <t>99fcc5eb-7bd6-492a-8b88-165f087996ac</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -15868,7 +15868,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>11049d86-97f0-40e9-9527-abc298c452ad</t>
+          <t>7eb09bb5-6ec0-4ddf-b564-461d96721d81</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -15896,7 +15896,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>6155f7f9-a980-4460-8f73-3da9ae2257e0</t>
+          <t>a2944af5-ed10-49e6-b1a1-38ca6e3166ac</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -15924,7 +15924,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>475a41a6-5e47-4979-afb4-7742e3bc1f81</t>
+          <t>8e496cd0-e83b-4c87-b759-3deb55be100a</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -15952,7 +15952,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>cbe43829-a860-4edd-965b-6117e3b62273</t>
+          <t>f8de3cff-9e13-4f95-8e9c-f5d9e4b3240a</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -15980,7 +15980,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>78289246-5817-4ad6-9200-f4b06688cfb0</t>
+          <t>75a1dfd9-6151-41db-80eb-abe69888933b</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -16008,7 +16008,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>5bbf6ee6-661b-4093-ae64-6a23bde06ee7</t>
+          <t>7367dec6-ac5d-4ef8-9629-debe8f4f33d2</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -16036,7 +16036,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>9ea4d28b-a499-4a3a-b59b-3b39ff30c5a7</t>
+          <t>9f1232f2-32be-450d-9c13-9d532f0a97ab</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -16064,7 +16064,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>b9a9e9ab-03fc-42c5-80c7-53cdaa4efc09</t>
+          <t>c2e8fdbe-35f6-4218-9877-ad5c04c463f0</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -16092,7 +16092,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>d10e6aca-8466-4957-9f7b-1f31f052e971</t>
+          <t>fe59667c-9bde-4abd-a8c2-bdfb4d16bb29</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -16120,7 +16120,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>3f0fff73-5ebb-424b-b613-16bb735d2a04</t>
+          <t>d6eab77e-cf42-4fc8-9d9d-4704ba4b1a80</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -16148,7 +16148,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>5e97b738-9c65-421f-9dcc-2c1d688a02ab</t>
+          <t>4e63cd45-8c1c-4174-b898-5e22ee9d3013</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -16176,7 +16176,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ecc700e0-6f2f-42b3-9656-ed10446869d5</t>
+          <t>9639fcc8-3812-44e6-857a-b367dcab2e29</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -16204,7 +16204,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>d0144989-6d8a-4430-bb3a-c333b411be8e</t>
+          <t>e6eb2001-f3e0-4b3a-8617-839db7c1acd4</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -16232,7 +16232,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>64ee598a-4610-41ad-96e0-fa83274784da</t>
+          <t>d8aa45d6-7752-4869-835b-528f3f58518d</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -16260,7 +16260,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>68b2b770-fec9-4874-8151-5649861fbdb7</t>
+          <t>bf2cf9e3-89ad-4949-ba9e-d48aacc6d789</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -16288,7 +16288,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>4b31f0a4-dc30-419e-b62e-efcd11f79bd9</t>
+          <t>a7b84ff6-904a-4108-9bff-0ff3c890d12f</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -16316,7 +16316,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>63b5bc22-f0d2-461f-9960-98985f0b13f8</t>
+          <t>98e08777-45f1-4e4a-8c96-ed2ccfb5bd0c</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -16344,7 +16344,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>a1bf14e0-1f99-4c56-ba0c-55df2f82a4c2</t>
+          <t>13e467d1-42c6-46b2-86c9-2933198eb799</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -16372,7 +16372,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>78573054-bad8-48b3-a033-31be6117ee7e</t>
+          <t>10722088-22fc-4c72-a1e2-197081dad345</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -16400,7 +16400,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>3349af37-17af-4322-9577-b5bf203923ba</t>
+          <t>3fc283dc-b697-43c0-b2de-667d0063074a</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -16428,7 +16428,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>bec30285-000e-4edb-b4bb-05d3160a1b67</t>
+          <t>e10cd5da-28f4-45d7-8b6f-64dc92f7e3f3</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -16456,7 +16456,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>0c2ebac8-8a4f-4983-9fbe-a2d23d621ba9</t>
+          <t>17fca5d1-fc1c-47ed-a712-7ffc005479fe</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -16484,7 +16484,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ba6e38c7-442f-433c-9187-5fc954ad0493</t>
+          <t>631f4cef-cfef-426f-8f23-ec918e8b0a2b</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -16512,7 +16512,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>c3d62d49-6548-4615-9a8a-f070c7f0ad49</t>
+          <t>728fcc47-d98a-4ed3-af58-6a79d4171ddd</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -16540,7 +16540,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>b811ffcc-6ca0-422f-a03b-e89e37c9e616</t>
+          <t>982b7f50-44ea-4c8c-870b-027a606aaef3</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -16568,7 +16568,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>acc27b4c-7100-4487-8bfe-8ccf1491941b</t>
+          <t>e6965159-b1da-480e-b977-9a481cc9cb4a</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -16596,7 +16596,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>83f895e6-461f-429f-9ffa-aab7acc1e239</t>
+          <t>721e4874-78a1-4297-9b2a-9164f0a8b77f</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -16624,7 +16624,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>4b9ab2db-3cca-4e8c-8024-8c6523a6d306</t>
+          <t>4f02ed11-0a09-443d-a07a-22cee8036cef</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -16652,7 +16652,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>5e7b0729-5f95-4bc5-b62e-e32151443790</t>
+          <t>c4816d50-980e-4ca7-b6a4-666dce7e4af3</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -16680,7 +16680,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>8e3787e9-c747-4eef-98ac-9584b37b4be4</t>
+          <t>baf7109a-7a70-4b8f-b676-5b78756a56c5</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -16708,7 +16708,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>353f9f52-acf1-4a23-95b1-f956dc064e84</t>
+          <t>cbefe1db-b508-4c04-ad51-e69c5b834077</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -16736,7 +16736,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>8cc23df7-7864-42bc-8535-c41b13bb4cb1</t>
+          <t>1d227628-5565-4991-8898-ea11829a3139</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -16764,7 +16764,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>43c33f1f-2e91-485f-8ec7-96556e741d4d</t>
+          <t>7ce73acf-fcc9-4eec-bd6a-e3a63f5abfa2</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -16792,7 +16792,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>4af52be7-6b80-41d1-a3f4-52f22aee80f4</t>
+          <t>b72160c1-5588-4d8f-a8a4-f4e1a78b5ae9</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -16820,7 +16820,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>b28b52ee-7b94-49a3-9503-eeda2594638b</t>
+          <t>6ab07287-b0d3-4b63-bcba-c00d11932f6e</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -16848,7 +16848,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>cb9b7da8-0570-4c96-a8db-17e4b27fbe45</t>
+          <t>5966d2a5-2ee7-479e-866f-b456a47db416</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -16876,7 +16876,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>57d2cc25-3070-408a-9f7f-6d70a08abff4</t>
+          <t>a68c7b53-b661-42e8-b9fb-d5165502c20a</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -16904,7 +16904,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>af4348c4-d175-4fc4-9d03-5a111ff3b9fc</t>
+          <t>0b40147e-ee38-444c-85e9-8aee54aa7ffe</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -16932,7 +16932,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>6a6de196-0c3e-447d-9432-53768a39b09d</t>
+          <t>aecd9020-9bba-4a76-977a-194173a4e7ce</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -16960,7 +16960,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>946b839e-6653-4fde-a426-bd6834b27cb4</t>
+          <t>54fc9ef3-96bb-4b64-b561-33a12e531a84</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -16988,7 +16988,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>bcfaede1-af98-4fb9-a914-0059d4c20056</t>
+          <t>501146c4-060a-4fa4-844c-29e899b81862</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -17016,7 +17016,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>266de249-e836-4480-b10e-de988e2b271b</t>
+          <t>48639d67-7621-4fd3-8cad-4a9c476a2659</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -17044,7 +17044,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ed10890a-ef87-4a9b-8dbe-7103faf6ca22</t>
+          <t>a1afcd6b-a147-4af2-80e7-1ee9e15a5e84</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -17072,7 +17072,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>200bb7b1-78cf-4889-975e-423be4dc748c</t>
+          <t>89572271-d6f1-46de-b5eb-eae6bfb2569f</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -17100,7 +17100,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>bdb856d8-8e70-4336-9d6a-32d58d3ec45a</t>
+          <t>26d3a89f-4690-48fd-bbd2-81782ad066d2</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -17128,7 +17128,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>da3ccb0f-5511-4068-bc84-f2a92a9e26be</t>
+          <t>c36ffe6d-bca6-40b0-9e01-28533bcc2800</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -17156,7 +17156,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>dd02ec87-2a67-4df5-9edf-69cfee542e9c</t>
+          <t>ca5efd3a-00d4-4f4a-93ac-34f97cb2ea8b</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -17184,7 +17184,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>2fa4558a-63b0-496e-bf84-056420a71f89</t>
+          <t>6d4aa83d-2a23-4dce-912f-a27731e7ede2</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -17212,7 +17212,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>0bdc7fac-8bae-4bcf-b273-3b38caa6963b</t>
+          <t>9f77c38a-a6cf-459c-a22f-2210cf5b65c3</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -17240,7 +17240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>172c570e-fdb6-461d-bf5d-a521a352a83e</t>
+          <t>0dbdad59-c7cd-4eb3-8aa0-d67a501df5d4</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -17268,7 +17268,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>d02af2cd-30f7-46f9-87b6-5959b9c13fb4</t>
+          <t>35ffc4e4-6f50-4b21-aacb-79057e7cd0a8</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -17296,7 +17296,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>a49d09af-ea9e-42e9-a71c-d49b239816b1</t>
+          <t>cf0dc61c-1bb0-4cd7-bf87-7ac559ec8446</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -17324,7 +17324,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>4926a5fd-5975-42e1-a79b-0e03cb38bb10</t>
+          <t>16e84ca8-b0f0-481c-9803-b79d98100361</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -17352,7 +17352,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>0687ed8d-627f-4737-baa3-b6896ec0c647</t>
+          <t>828d6f56-5073-4a00-b583-91dcc3ccb850</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -17380,7 +17380,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>4c69c9b1-d2d3-42c0-b178-82dca3a14d23</t>
+          <t>dfd3e56f-223b-487f-9c6a-4837df368b6e</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -17408,7 +17408,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>0b84f109-2548-4156-ba71-e9b8a05eea5c</t>
+          <t>01a8b129-199f-4bb7-93f3-92d76c95ca11</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -17436,7 +17436,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>1a424f6d-2b01-4ab8-a662-7169fab955a9</t>
+          <t>e713b46a-ec23-4504-a264-59b0dfb6acf9</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -17464,7 +17464,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>cf254daf-77a8-4c96-86dd-a9f615c44f1e</t>
+          <t>0bb66ff4-d0a6-4f4d-80c2-acfa156da3c2</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -17492,7 +17492,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>9f343207-3f80-4c19-9e56-17959a11ffc3</t>
+          <t>6d507023-8136-47c5-b91d-a6b3754d1ce2</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -17520,7 +17520,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>10da4b30-44f7-4404-a94b-d04275c041bb</t>
+          <t>1c5ebd5d-b2f7-4490-91d7-f5b9a89c618b</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -17548,7 +17548,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>4a66b93e-f223-48ba-8cde-48b9e8cccd96</t>
+          <t>a28b804b-bb22-4cb0-a517-ffe27b39769c</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -17576,7 +17576,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>c033a70d-a704-4e7a-800a-2b3887fb7f62</t>
+          <t>058e5b4c-b8e3-4aa9-8d19-5614f7659414</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -17604,7 +17604,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>67395bd0-30cc-4db1-92b2-7a9a7df34ff2</t>
+          <t>2f32ca54-1296-4b9b-83dd-2435a861d06f</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -17632,7 +17632,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>9cef5c18-218c-441d-b032-1a6e8501f651</t>
+          <t>5e3c5cef-8e52-4382-992f-13e8bc57df58</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -17660,7 +17660,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>5feb8598-006d-4f2a-9a8e-61bd5f862591</t>
+          <t>49340b2c-0de0-4f6c-9ffe-97eae3d49e9a</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -17688,7 +17688,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>6d175074-eb22-4c87-8ed1-779c6435f99e</t>
+          <t>97fb142b-2a2f-41d9-95b2-8c86a3a007e0</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -17716,7 +17716,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>c6a46005-0b98-4a5b-96b0-72449c96535d</t>
+          <t>f0534b00-2ee4-42d2-ba3c-499c0c526a6e</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -17744,7 +17744,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>d91784db-08a1-4691-b41c-603762b9abd5</t>
+          <t>aa5a91e5-5a9b-40d9-9e88-234668e9e2b9</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -17772,7 +17772,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>e9edfb8c-db17-44f0-8d10-c932e137a322</t>
+          <t>4364d78b-958a-44bd-9714-5c81e2903161</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -17800,7 +17800,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>bbfb7b38-a70f-4ee3-8a00-e1ee8a54a18c</t>
+          <t>afb252f1-4cf2-44e3-b9b0-040fd96f30d4</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -17828,7 +17828,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>4c51b8b7-0d26-4442-92df-b022eb4a272c</t>
+          <t>46849614-0884-4990-9450-ecd4caaf59c6</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -17856,7 +17856,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>eb64d88f-8549-4360-838d-8dc2ac2fce92</t>
+          <t>a984ae3a-38b1-4458-b5d1-27784783d1f1</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -17884,7 +17884,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>add24992-f59c-46e9-9f55-f6ea230e6e90</t>
+          <t>92c27086-4aba-491b-a1a7-9f48e936d113</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -17912,7 +17912,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>2f46959f-1cba-421b-b223-d3e54b852d92</t>
+          <t>4f00804c-0b7c-49b0-8b35-743bd55051b4</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -17940,7 +17940,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>91ffbc3e-c398-437d-a9a0-65301b930624</t>
+          <t>8159cab4-291b-4caa-849d-419d6491b508</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -17968,7 +17968,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ca3ef01d-1bef-4da5-addb-806de8c229d0</t>
+          <t>5f0a3547-e83c-4f2c-ac31-fbd93e48cebd</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -17996,7 +17996,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>51aa39db-3017-42c9-b2c3-a26323983c2c</t>
+          <t>878400b2-e7c7-4ea2-ac23-906d0b739f40</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -18024,7 +18024,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>02487c9f-6c1b-4ef6-a3c2-ac125c2aa4d1</t>
+          <t>6e44adad-7bea-4ccc-8eb3-bdeb552b1885</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -18052,7 +18052,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>b5ba7d89-ab78-4264-87f2-8ba6987b7a42</t>
+          <t>f9569606-f350-400e-8f8a-03ee46e4c944</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -18080,7 +18080,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>3d71407b-57d6-4956-913a-a7a45f299d86</t>
+          <t>63fa7fee-5889-4943-8bfc-18638f67cf21</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -18108,7 +18108,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>7fe6d1d4-adfc-42b9-99f4-2e5c0d0ce70e</t>
+          <t>7604ff60-5eed-4775-8686-aeaf902232e5</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -18136,7 +18136,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>0ec1e90e-680b-4118-927f-3f93a2f5eafc</t>
+          <t>578a0d1c-8949-4e24-9019-8d4590045a92</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -18164,7 +18164,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>25a7cb8b-91b8-4285-8645-fa20737451e6</t>
+          <t>353bf5e7-5ea7-4a66-aa9c-9b5a35e2d678</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -18192,7 +18192,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>0c8fa151-1bb2-41bd-a249-8dc0f1fa416e</t>
+          <t>92668784-f123-4855-8221-55a0262ac231</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -18220,7 +18220,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>4e724fa2-dcf0-40ef-a5a2-2f64d8e1cbd3</t>
+          <t>7999cd37-37cd-409e-8ff9-3901f695a666</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -18248,7 +18248,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>32377c14-1997-4624-88bf-98c6f6484630</t>
+          <t>d4017e7d-4116-417a-8a01-b35c73639e78</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -18276,7 +18276,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>45008550-6936-47ef-8cc2-d35b17a4a2e4</t>
+          <t>feaffb92-854d-4e3f-884b-1343e47d1bd2</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -18304,7 +18304,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>706a52f0-8750-4046-8a60-ccbda13873a8</t>
+          <t>2ba580d0-2083-43f1-9ad5-7233b1441004</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -18332,7 +18332,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>6456d9d2-5385-4345-854c-f77372a19e9d</t>
+          <t>2296542d-5c5b-46ec-af0c-a2c41d61d99e</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -18360,7 +18360,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>70dd4e49-d876-48c9-afeb-78b1d269a574</t>
+          <t>cb02e078-d367-4954-ae98-6392e7b8a1d9</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -18388,7 +18388,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>cbae3c80-489d-4856-a178-559c855fa4dd</t>
+          <t>8aa9bf50-8e8f-4a7a-a60d-0fd505dc4da5</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -18416,7 +18416,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ec6104a5-40f8-4575-8de5-032f4be413c8</t>
+          <t>ed04f5f4-4338-488d-95ff-a6f8420bf012</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -18444,7 +18444,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>806ffab9-6e61-4339-a392-59b88859ec49</t>
+          <t>28fcc08b-8cc6-4cb7-9402-ecc3c1399219</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -18472,7 +18472,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ce7c403c-5ffe-4d53-a67c-70097446e423</t>
+          <t>e03437ca-9f87-40b4-ba66-1164fb7e0764</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -18500,7 +18500,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>e3539362-0c56-4887-b132-50fdb84c9d40</t>
+          <t>f0db0412-0289-4ce1-b4dd-40693e23fa5a</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -18528,7 +18528,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>e28fd54e-e798-45bd-a52f-5f3c1d9e55e4</t>
+          <t>d9edb3a7-01e5-4e55-a37f-27024150a0c3</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -18556,7 +18556,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>f0313f78-1d16-40b6-9870-00ca6728d3f6</t>
+          <t>6e3c0c49-4ba8-4abe-8dbf-0ba9c18a735d</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -18584,7 +18584,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>d551556c-66c3-42a0-8d47-610dddb02545</t>
+          <t>969d11aa-14f0-4cfc-ac53-b77bbbbf4777</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -18612,7 +18612,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>9373e11c-b00a-4be3-8c10-eb28fdd5a4c2</t>
+          <t>c745070f-9f46-4411-a29c-51310435bce7</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -18640,7 +18640,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ae5bd231-d550-46e8-9c11-1647b78731ab</t>
+          <t>b7cb3364-e1ee-48f8-9238-9bdf808c970d</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -18668,7 +18668,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>3b087c37-c0d4-4fb2-89f2-56a9ee7a0351</t>
+          <t>9590344d-a4a6-448f-b7c6-6a49ab1f9411</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -18696,7 +18696,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>903bc0f4-d7c9-4e96-9115-051ce8389182</t>
+          <t>77c2c7fd-9659-4dd5-97eb-f95ae226780c</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -18724,7 +18724,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>cbc5333b-ead7-45e8-9e22-62ad55c5089c</t>
+          <t>e9cd4459-4329-4318-b96e-6fcb89277c69</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -18752,7 +18752,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>78c0da3c-b9c0-47aa-885a-813860ba642c</t>
+          <t>1f361604-ab7b-4d14-8fd7-b3b6f38c2a1a</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -18780,7 +18780,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>27e020bf-d77b-474e-8420-c30a1a26261e</t>
+          <t>27a5cbc3-7ee9-4160-960c-e5a6dd8b66f3</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -18808,7 +18808,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>d1cd0973-5995-4c73-b184-cf8a49efef80</t>
+          <t>8353be4e-b655-40b3-9785-432a421be6ef</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -18836,7 +18836,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>7a1781a5-bad7-4587-a451-5ea8dc94265e</t>
+          <t>08d06d66-a995-46e9-8b1c-a9ac319ec388</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -18864,7 +18864,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>a3b6d346-ef73-4e45-acb5-c6b4ac100858</t>
+          <t>371dd0bf-02ad-45e6-ada0-0e51da0b431d</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -18892,7 +18892,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>63beed07-b792-47a8-95f3-cbd24d49c743</t>
+          <t>ed3a48ad-0207-4b94-9a67-1e9c7a074bbd</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -18920,7 +18920,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>57d8dbd6-6827-49e3-b246-3cdb6693a89e</t>
+          <t>d591135b-d931-42b3-aca9-3490fc004dbf</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -18948,7 +18948,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>bde79dff-ac80-4c4d-a5db-eeecf3edd0e9</t>
+          <t>f4f2c237-130c-439d-84b9-39178380a0a9</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -18976,7 +18976,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>af3bf92d-0f19-4d7a-9fed-61d828c22264</t>
+          <t>c6143aed-4e0e-4f00-b5a8-58b7926a5788</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -19004,7 +19004,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>298a4412-2581-44c9-903a-39e525045a4e</t>
+          <t>e706e6b0-3731-450f-9947-ac8b52523353</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -19032,7 +19032,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>137ff647-af30-40b4-b305-25f86b008e86</t>
+          <t>ec116cdf-e1a9-4aae-bd71-d00c2e92fc45</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -19060,7 +19060,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>d1162aa5-1158-430f-b338-144a810af1e8</t>
+          <t>8b9cc551-9c14-4279-a528-86b12fb206ae</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -19088,7 +19088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>5aa41007-e4e8-46ba-ab47-c174c1f6977b</t>
+          <t>9cc6ecb3-4e5c-410e-8aa5-d4e22be2fdb9</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -19116,7 +19116,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>0c71374e-80d7-4526-a58d-c8cef867a3ac</t>
+          <t>7db51475-d7c4-4575-a702-074ec8107d43</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -19144,7 +19144,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>92f7fc88-1268-4087-b45f-f6eebfe35de5</t>
+          <t>3f3e37df-d798-476b-9cb7-926058ce150f</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -19172,7 +19172,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>b59c9f8f-ae2d-4d59-97ae-1746b3ee06b3</t>
+          <t>2f1e16af-08b1-40df-902d-39784bbcf940</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -19200,7 +19200,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>70881ba6-682b-485c-8bd1-ebf80234982e</t>
+          <t>7aa662f5-2130-4faa-a48f-8e62962dd1e6</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -19228,7 +19228,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>07b5cdeb-9702-4b04-930d-8a94d586edd3</t>
+          <t>10a91c7f-059e-4343-824f-4f6988ffc123</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -19256,7 +19256,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>eb21fd32-209b-4abe-83f8-b1d9d787e39a</t>
+          <t>5a5c5b69-dd98-402d-ad50-f75876d4a2c6</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -19284,7 +19284,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>b04847df-5330-430c-b1ec-b6c244b98348</t>
+          <t>23872aba-f2c0-470f-9b8f-67df9f4b7d83</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -19312,7 +19312,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>6defb384-43a6-483d-bec6-8670e04047fe</t>
+          <t>f4a4145f-cbf8-492e-907d-cb39d98a181f</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -19340,7 +19340,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>30facd73-8bef-477f-bd70-a7d6a8d90b92</t>
+          <t>2673faf4-6ac5-4bb1-8be6-a7e23638eab7</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -19368,7 +19368,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>38000fa8-60a7-4482-8df1-55f7343583e2</t>
+          <t>d08468f3-2de7-454a-af36-c3757eb31c75</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -19396,7 +19396,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>cce0710f-089d-4b43-918c-21dc9d610402</t>
+          <t>1acb614a-023e-487e-ba21-03ff192945e8</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -19424,7 +19424,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>69d6f879-15ae-490c-8136-807184ea0c11</t>
+          <t>21b92317-d6ed-495b-911a-773ffc880224</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -19452,7 +19452,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>603278bd-b2d6-44f7-aedc-a1cb64761368</t>
+          <t>4fb64b69-0f39-4189-866c-c1cdb1e689c0</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -19480,7 +19480,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>5e99acd8-bc3b-4e75-980e-42369fd451db</t>
+          <t>b421cced-2cd6-4fc6-939f-989ac6d90fd5</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -19508,7 +19508,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>dae2166c-229a-4af6-8944-689a728e5951</t>
+          <t>e34e484c-e9ed-4f5e-b731-d4c66c38c513</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -19536,7 +19536,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>79369d8d-828a-44a0-8d16-298dcd1350bf</t>
+          <t>e14a4c3e-3425-42b7-b328-8f5daa12bd43</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -19564,7 +19564,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>67718a56-c3a7-4856-a797-404a85c71bfb</t>
+          <t>64b529c5-7d71-4c0e-a70b-6cedaab4996b</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -19592,7 +19592,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>4229bc57-66ed-4cee-b168-131a3d3142f5</t>
+          <t>e97f927f-6600-44e0-a0c5-670737e8cfb0</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -19620,7 +19620,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>62a9fa06-80e2-4d2f-8d33-26c68d36cc2e</t>
+          <t>5d5381ce-5e99-4a00-85c7-9ebb16e8a972</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -19648,7 +19648,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>f1041aa9-acf6-447d-9217-e6a6f9d78089</t>
+          <t>48483978-2402-4906-bfae-03e0feac07ad</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -19676,7 +19676,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>674c1d33-208c-41cb-beb4-cfeb71a757b0</t>
+          <t>f2c1a763-93e5-4983-bf9b-6280dcd15826</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -19704,7 +19704,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>5af72fee-94e0-455a-9bdb-f9286970bd0f</t>
+          <t>d02cf799-aee3-41ae-8575-61aff1c330de</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -19732,7 +19732,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>5cc1ee48-9ff8-42f5-be36-148d0e51bbf3</t>
+          <t>200ea8d3-834b-4702-9065-e971ef94d550</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -19760,7 +19760,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>75323655-bc7b-41fc-a770-881fc01c5768</t>
+          <t>9d8cb008-4e11-41a4-bf86-5335360db41f</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -19788,7 +19788,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>506d5042-f52e-4c98-ba61-68dcdff8d39c</t>
+          <t>b94bfd29-5cde-4895-9a38-6a99c663232b</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -19816,7 +19816,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>7639c22f-9bfc-4a10-897e-0e2d5f94de58</t>
+          <t>884877aa-bf6f-4d69-b1d1-10c418498070</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -19844,7 +19844,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>8f32e57d-188b-42f2-9746-21128756a087</t>
+          <t>21dd269a-8cce-46b5-aa9a-7e3ad696f1d7</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -19872,7 +19872,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>e71f5ffc-e3a9-4e22-abd1-f9e7f4af2500</t>
+          <t>248b9b6e-9263-491d-9df9-aaebe92b912e</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -19900,7 +19900,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>53701af0-3faf-45ec-bb60-0786f3802c23</t>
+          <t>dab84a8c-c03d-455d-90b4-5b6eb69eedd1</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -19928,7 +19928,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>dff63c71-fff2-4537-86ce-504aab11996c</t>
+          <t>6592ab75-b26e-4896-beab-3dbac3356285</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -19956,7 +19956,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>3717db1b-773f-414e-821f-4f310310203c</t>
+          <t>b91e3bc0-a665-4f47-8526-fda059dfe53b</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -19984,7 +19984,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>042ecc3b-b3c7-409c-896c-b58f3017c9f5</t>
+          <t>802e7a92-26b2-498d-bf9f-c3350925ebed</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -20012,7 +20012,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>c6dbb995-c5d7-476f-8bd6-6679f1ec1a33</t>
+          <t>88ee1297-3b62-4129-aeb5-1c3bca51fce6</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -20040,7 +20040,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>b863c202-b330-4a4d-bf8b-16e031dfbd57</t>
+          <t>bbe33ff6-e95d-4830-8e5b-f4161491de78</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -20068,7 +20068,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>c9e948ba-9ae6-4ff8-8a0a-014b990e4783</t>
+          <t>41cc3339-a20e-4cfa-b924-5718e11257b0</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -20096,7 +20096,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>3c541518-3ef3-423e-b38e-5ef0f840b256</t>
+          <t>0c6d9ede-3279-49a7-bf39-de22ab4c8c9c</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -20124,7 +20124,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>15ae7a4e-0945-4741-a37e-30a2290a19ab</t>
+          <t>b7fec16d-93c8-48cb-b3f9-885a7350b915</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -20152,7 +20152,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>57cf8a7a-a150-42a4-9daf-8cb54b483b4b</t>
+          <t>b471d14b-8e31-4144-8cb8-ebfaac0d7f74</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -20180,7 +20180,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>0592368e-9b4b-45e6-a552-b1b53f3a47d1</t>
+          <t>e32904be-f3bc-470c-be62-5edfb1a17984</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -20208,7 +20208,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>d5130df1-1c3c-48e8-a5c0-9b7c4fde91f6</t>
+          <t>4b55dde1-d48a-40b3-bf87-178e67666cdb</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -20236,7 +20236,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>8275c825-9655-4ce2-9cc1-a058fd980524</t>
+          <t>382fd815-e403-475e-8f59-023551c0194e</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -20264,7 +20264,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>6e2f332d-10a1-4be5-976b-faedc70810c7</t>
+          <t>f7d5d906-949c-44fa-9d2f-54e332649227</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -20292,7 +20292,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>f5024180-c920-4fe1-ad20-fa1aef6d0cd7</t>
+          <t>b7975255-7c5b-431b-9cfb-e981330bbe0c</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -20320,7 +20320,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>16798ef9-8062-4402-8951-b4a48f49cd93</t>
+          <t>d4c6fe89-25d5-4df8-a53b-857ae49770aa</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -20348,7 +20348,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>2bd4db03-7a55-49a2-b779-48a27e7374b3</t>
+          <t>d3235f7b-93e8-4556-86d1-eea938dbe86d</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -20376,7 +20376,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>c45c7a1e-ef49-45ee-a1fa-3a954db2d74d</t>
+          <t>62955101-9101-40c0-a9fa-81636a456fb1</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -20404,7 +20404,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>eb3aec48-0bdf-418e-96a1-6dcbc0e74cdd</t>
+          <t>441ed3dc-cf31-46ef-8569-3451d938f8b9</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -20432,7 +20432,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>9c6f8c80-fa75-4da1-a7fc-8345ea1cf97e</t>
+          <t>d58596d9-2661-4ad2-8a70-acb98d0301d4</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -20460,7 +20460,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>c484211e-e867-4b6d-846f-cc167db04ae3</t>
+          <t>bf8a273b-a192-412a-9472-80e9cf9619e6</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -20488,7 +20488,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>14ce2bcb-e052-4d58-9e08-ec5c9d4f109d</t>
+          <t>e0974a07-3a7b-4cc4-8083-9e1784970909</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -20516,7 +20516,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>7374fa61-a5c5-4cb5-ae86-354c582d264b</t>
+          <t>1b4cbad5-c990-4906-97f4-d2673ca81746</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -20544,7 +20544,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>b003b5f9-0e4d-49c6-aa32-acbbd0ab7f0a</t>
+          <t>4975ad96-1a02-4075-9d48-c442a4476cf0</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -20572,7 +20572,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>daab8edb-fd14-46a1-a8a6-2770b3cecc87</t>
+          <t>bcdc7be5-57a7-4f2d-9ac6-f1650bb9dcf1</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -20600,7 +20600,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>031cebe6-d52a-4ea9-bb31-9b8c1d772ec2</t>
+          <t>29cd9596-501c-47e3-9921-8d498213cc12</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -20628,7 +20628,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>d8716b83-1680-4919-ac2a-246736af263f</t>
+          <t>84c9c63d-ed4b-49a9-bc03-cec8e3518a31</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -20656,7 +20656,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>812e3996-029e-424a-bc56-4bb95f1fc20f</t>
+          <t>fcc48e49-5ed3-4401-aa7d-70d36869c10f</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -20684,7 +20684,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>06cd3b10-8c3b-4620-810e-8b427c2879c7</t>
+          <t>483a3d96-97dc-40ac-b04a-b380fd8f6626</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -20712,7 +20712,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>29488f1a-0578-4d02-a8f1-c890598330bf</t>
+          <t>32bce0c2-5b67-48e8-ae5b-69630d573fd7</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -20740,7 +20740,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>2488a07a-720e-437b-bc49-1c47225b5f31</t>
+          <t>76d25897-1554-4818-bd2e-bec6a938cfa9</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -20768,7 +20768,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>a6206d10-2e11-47c1-a6e0-688536c3da5e</t>
+          <t>d63ece1b-e1f0-40bd-a17a-a6b78478a145</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -20796,7 +20796,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>2eff80f1-f099-432f-9f60-dea23da7bfd9</t>
+          <t>118a6e02-951f-4cbc-adb2-46bd9d62af28</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -20824,7 +20824,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>c9164f5e-19ce-4261-b6d8-428086d05e70</t>
+          <t>f90840b2-cd91-4920-b972-7a951872ead1</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -20852,7 +20852,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ef709be3-55d9-4f5b-8428-39d202804cdc</t>
+          <t>ae47c56a-f6bf-4aa2-9866-d9360afa6055</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -20880,7 +20880,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>f57eae76-947d-43ea-a032-ce21169815ad</t>
+          <t>2f240373-a390-4abf-bba4-f06a922c55ea</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -20908,7 +20908,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>6e1730c7-2216-421f-888a-2e0bb7907fff</t>
+          <t>9dbfcacd-a593-4d90-8e8f-cb76df490559</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -20936,7 +20936,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>6cecd4ba-eb09-4a03-b86f-2017cc6bb62f</t>
+          <t>4364fbf6-d21a-4560-83b2-ddc4f6d3dc82</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -20964,7 +20964,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>28acb595-7ced-424f-b571-9f0714a84389</t>
+          <t>fdcef4b3-700a-4cd4-8a1f-f1e01faffd94</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -20992,7 +20992,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>39c575a3-bc9c-4b55-afde-02df054af7ab</t>
+          <t>2730eedc-58c7-47ab-bf87-d37d2e8fd55f</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -21020,7 +21020,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>7acf4230-fb5e-47cf-88a5-cc67465dfba5</t>
+          <t>25b63906-2ff1-496e-b577-2306abe42aae</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -21048,7 +21048,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>35f9c737-b69e-4560-9fab-0328ed9a8116</t>
+          <t>c19f2f43-8555-4ba9-8dd5-fab79f16820f</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -21076,7 +21076,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>b145bbaf-e858-4a67-a023-9f18e1b43a90</t>
+          <t>25eb724b-4205-4865-ba36-52147b843a48</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -21104,7 +21104,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>23ebda30-0414-4824-8382-55ff9a1066fa</t>
+          <t>892bc3df-a483-4263-8af0-1dae90834de7</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -21132,7 +21132,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>b97dd64d-1ed0-4e96-9283-6aa929d6cc83</t>
+          <t>190909f3-06f6-4d8b-aafa-4169b9ae8e8a</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -21160,7 +21160,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>f7598ee3-41da-4caf-a4ad-e22b63b4dfc0</t>
+          <t>383d0d1f-691f-4b47-b567-8771b297443c</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -21188,7 +21188,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>116bdba8-d18f-4ac8-9bd1-2e85e5f3de37</t>
+          <t>7e77c2d9-d4f1-4628-9ef4-92a485557924</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -21216,7 +21216,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>fc4f4c7f-5aa0-4b2f-a449-f4e8ef22194a</t>
+          <t>4b75d597-1136-44ca-94c8-b981bb1ad421</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -21244,7 +21244,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>0fea5bdf-b04a-4d15-bd58-2369b8a14f8a</t>
+          <t>44f85829-23f1-4396-9590-08e787a575d7</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -21272,7 +21272,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>debb83e9-3fdd-444a-90fa-794472e63fa4</t>
+          <t>4a6839c6-98b6-4c1a-9b3a-3334e06cb2f2</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -21300,7 +21300,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>d882c082-c4c5-4747-9ba8-28244fbb2b95</t>
+          <t>b03f8765-02a3-4cbc-93dc-a18a5ee79408</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -21328,7 +21328,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>b88ef9ca-7596-4c13-b92c-d0f4393d8f35</t>
+          <t>f5e55930-8b6e-4805-b1c5-4e3ea06adb6d</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -21356,7 +21356,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>798fd29c-96a5-49a6-8928-0cad05eb9755</t>
+          <t>227aec9d-ce28-4157-837c-99a2f3c7c13e</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -21384,7 +21384,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>1a74cdbe-3d04-4c7a-b482-b8a2805379cc</t>
+          <t>27ef3b1a-dbd0-4cf4-b902-a1c49ba3a1b3</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -21412,7 +21412,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>6dcb3918-09e9-47ea-8c67-93b64fc6c1bb</t>
+          <t>dd9d0748-b5a2-4e77-b170-d77abc859bc8</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -21440,7 +21440,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>a414b167-2498-4a2d-bd4b-48f50ad37f9d</t>
+          <t>5aaa8d3a-36b2-400c-abf0-7793382e9a2f</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -21468,7 +21468,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>2b82d4c5-3b0c-4253-8117-446bdd9d50b3</t>
+          <t>fdb651e9-aed7-4f9e-9721-1b31d7c1a961</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -21496,7 +21496,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>a34917f7-3c65-474e-a25a-f4b1d5e609a0</t>
+          <t>7b0b89df-b9c3-45a8-80b3-091a3c25be0a</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -21524,7 +21524,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>725377ab-040c-4fdc-8923-7079223a4a15</t>
+          <t>0243ab6d-cc54-4de1-897a-f9d83c6ecbcd</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -21552,7 +21552,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>f4c9c553-bb8d-4afb-8035-a47ec7a5e1f5</t>
+          <t>947098a7-97b9-447e-a716-96852bbe49ca</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -21580,7 +21580,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>ad9c059d-d94e-4cde-9bdb-1d6c048b948f</t>
+          <t>ae31a86a-3d14-466a-8923-7dea9982f059</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -21608,7 +21608,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>203643e2-81cc-4b26-a958-5f0e2ac90343</t>
+          <t>8a30b03c-994a-4f25-8266-6f02cb7c8395</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -21636,7 +21636,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>54b5880a-6aa3-4c1c-b749-7f76b40e7b75</t>
+          <t>095bc7ce-6cac-4841-a32d-d2a72b932061</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -21664,7 +21664,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>98b6e08c-9792-4474-b634-95b3a5eb1ef3</t>
+          <t>a4793bf7-5f53-4717-824b-57361bd6da51</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -21692,7 +21692,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>6364b16e-01ae-474d-bc33-185e69586056</t>
+          <t>096a063a-3247-4dc4-84cd-ba56557d382e</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -21720,7 +21720,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>360dbefe-2377-4de6-98f3-ea0b76db82cf</t>
+          <t>94a23d9d-6b0d-4cf4-88a6-53cc8edcbcb9</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -21748,7 +21748,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>5049d705-301d-4688-9dbf-2c49a9a12403</t>
+          <t>3972fc85-a96d-4f43-b657-c27edff69325</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -21776,7 +21776,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>f68c5643-94e2-4f19-8ef0-a3488a94ab7b</t>
+          <t>645981df-774e-4d29-8395-d72b91d31aae</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -21804,7 +21804,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>a2f2ab89-1b40-4173-b86c-1fe9c8f12b6b</t>
+          <t>f233ffd4-b74e-4f9a-870b-40788613b33c</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -21832,7 +21832,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>47a2c2e7-57f6-42b6-b831-2f9a26ddbba2</t>
+          <t>0a1d7ffe-5af8-40b0-8335-2f5facaeb1c9</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -21860,7 +21860,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>a293629b-f7cb-4797-ac04-cdbfcd6fd01b</t>
+          <t>134fef4f-dc66-49d6-8f81-d66d240a8a42</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -21888,7 +21888,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>f3d4f394-48e0-4d2a-abde-5eebec65a6fc</t>
+          <t>b51f3e1d-dbb2-4c14-9bc1-5f7c7510072b</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -21916,7 +21916,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>78cf3725-d5d1-4e91-8c56-b1db2b9eeb08</t>
+          <t>5dbd7e66-c78b-4ecc-879a-f3b96ae21342</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -21944,7 +21944,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>9cfd38b3-08c4-4d6c-a0d2-f2ed1a8d6a88</t>
+          <t>fa18a2f9-8547-4302-aa0b-521d4e39acb2</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -21972,7 +21972,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>dd662744-6495-4c35-8554-ddbe0d099502</t>
+          <t>95dbba68-75cc-400b-aa88-7c98d999bfc9</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -22000,7 +22000,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>95d2898b-a2a7-46ce-baa4-ae169bb0b012</t>
+          <t>c4950053-b5a7-46dc-b87b-29ca411db963</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -22028,7 +22028,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>f910ac7e-6ccf-453e-ad14-c9863029a20c</t>
+          <t>68112543-110a-448f-9bef-f5cff1e1c33c</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -22056,7 +22056,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>076eb020-678a-4f16-a2cb-4e557c340b56</t>
+          <t>0b834a6d-6d86-4a26-a908-84963877ba1c</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -22084,7 +22084,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>3d288925-21f8-4c4d-b134-0f8fc72c62ee</t>
+          <t>aa30b468-1469-442f-83d6-5420f12e602e</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -22112,7 +22112,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>03f92970-04a6-4a82-82d4-320848316c51</t>
+          <t>ec5f3419-6af7-4e89-9878-f6fec0ed2dfd</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -22140,7 +22140,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>876df149-7d54-49f7-b1b3-64b2537088b8</t>
+          <t>1535fe10-ab2a-419a-9001-f59cbe90f352</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -22168,7 +22168,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>b26af87c-0478-4cc1-b322-874deda74d89</t>
+          <t>fbe9dfb2-72e2-4f98-817d-ffc77dbe1536</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -22196,7 +22196,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>54588514-3f4b-481d-8ec8-54aa25f17cab</t>
+          <t>7841ccd9-fe9e-4740-803b-b2ee37865345</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -22224,7 +22224,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>7525120c-9bbb-4bd6-9bed-f13458762760</t>
+          <t>1380f1f1-dfdb-449d-bab0-d3d193c30c32</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -22252,7 +22252,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>e81c7cfe-ae08-4932-a40d-c5b85d8bc25a</t>
+          <t>b6d7be9e-82a8-4810-9628-cc1d3e1e5a65</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -22280,7 +22280,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>55f85299-c825-4997-b6d9-9767dbcbeff2</t>
+          <t>fca595aa-988f-4079-929f-1dc065c13534</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -22308,7 +22308,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>588c7ee4-0916-4118-acb8-71af50b67609</t>
+          <t>b3833d49-1bca-4f5c-9714-29a96beb9fca</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -22336,7 +22336,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>febad369-19be-4e0f-b2de-96defa6edd2c</t>
+          <t>aca6cecf-8754-4045-aa25-d72e127102dc</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -22364,7 +22364,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>99a99072-1a10-4dfd-8f5d-8e46f793c323</t>
+          <t>fbf4fb4f-a5c9-4f21-9553-df9c8b72ed70</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -22392,7 +22392,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>c7bca37f-c49a-4cb2-84c8-4e692e0da7df</t>
+          <t>3a4a104d-b9df-4058-a991-c71fe7fb3a36</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -22420,7 +22420,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>f5e146f8-b2ec-4196-a3e9-83822a68e15c</t>
+          <t>d751d492-a585-4c81-87e4-502b1fea6fc9</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -22448,7 +22448,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>b25b1441-7568-4160-910d-24d92f56c157</t>
+          <t>826efa7a-b6c7-40ea-9b37-452606bccb7a</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -22476,7 +22476,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>4f69c875-6731-4b75-8341-36b583371366</t>
+          <t>8ab2462e-8a21-484e-95b5-07f838f6151d</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -22504,7 +22504,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>0ee6e0ec-2b95-4dbf-8caa-13cdabc86687</t>
+          <t>68fc41b2-ecac-4dec-a28a-d07febc6ecde</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -22532,7 +22532,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>a5e35367-e807-4cef-9960-5a13254395dc</t>
+          <t>001cb743-6cc7-41c8-96ac-d3b0a1a891e6</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -22560,7 +22560,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>96a3cda3-b4f6-40c9-8fd6-39975ffae078</t>
+          <t>50b764e8-a239-4059-8976-6954e8effc2b</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -22588,7 +22588,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>52fa6de8-aa01-4bef-830e-1b88fdc851a0</t>
+          <t>ec680f9a-8f95-414a-9c9a-b9eb481edd42</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -22616,7 +22616,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>cadc6922-900a-4834-89a0-4c7de2deed45</t>
+          <t>6b568522-ff16-4a23-a53d-d963542fbd82</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -22644,7 +22644,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>24aa3122-b2cb-458d-9ff1-798e9b82a0bb</t>
+          <t>bbd0b1fa-eadf-427a-9305-5e61782c0c42</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -22672,7 +22672,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>9739533c-e8ab-47f6-9e06-dfd15529dc04</t>
+          <t>498cc663-25e2-49c6-a62d-d4cddc0f40c5</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -22700,7 +22700,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>1e8840f5-2ffc-41d1-9df2-71b2e0bffb86</t>
+          <t>d0ac5755-fdb3-40b1-8fdb-676c8e730bc0</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -22728,7 +22728,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>170eb914-4ff4-4703-b8a6-68a8cc12f51b</t>
+          <t>c7dfdb34-21b1-481e-9a11-8d3c99bcc5b0</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -22756,7 +22756,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>1ae6b380-37fe-43c4-a3e5-b08a7840f971</t>
+          <t>aaca61c7-d2f6-4c1d-9372-7ca93c1706b8</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -22784,7 +22784,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>3694c84a-2861-49e5-92e9-20f9610295eb</t>
+          <t>c5af18f2-baff-431e-91d5-7d73dee1bbbf</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -22812,7 +22812,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>ec7ee607-11d3-460c-b6f8-03ec2bd94219</t>
+          <t>08a54c85-82e7-4fdb-a22e-7b260a8bc09a</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -22840,7 +22840,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>710956be-88e7-4b7c-8003-a1e702ac47d4</t>
+          <t>5d7c46f1-331a-48b2-8e41-a8d04f9cd73e</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -22868,7 +22868,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>7df36164-3ca7-411a-b9bf-851af7a37d72</t>
+          <t>0e5e3c6c-cec9-4e28-af04-b7b99eb95cba</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -22896,7 +22896,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>fe4da263-a66a-44ef-8d3b-f551f8eb64b0</t>
+          <t>515e785e-2c27-40bb-ac4a-784ffb22f451</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -22924,7 +22924,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>0f729f2d-591e-4321-acc8-21e700894657</t>
+          <t>834ceac7-b589-4f3c-add5-fc73d0b039c0</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -22952,7 +22952,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>3a4a0563-aee4-405e-8254-a04addc12014</t>
+          <t>602f03ab-0a5e-4e85-b24d-690d0c531a8c</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -22980,7 +22980,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>ca628f28-9aef-4280-8e40-90e18f8b22fa</t>
+          <t>0e4e52d7-d2c0-4cd7-a27c-74ca78b1d54e</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -23008,7 +23008,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>783a02c5-1de1-4335-9435-db1a601ea4d5</t>
+          <t>26dce454-809e-4863-b66b-4d7735e6cf0e</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -23036,7 +23036,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>fe4f4323-fe2f-4e71-908b-5650bc9aeb2d</t>
+          <t>987e1cc1-201c-44d5-94df-5a8277ae535b</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -23064,7 +23064,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>c8c78c48-20b9-4c3c-9512-c75bfbd598b6</t>
+          <t>b6337048-ffe5-4f30-8684-1623d7f6825d</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -23092,7 +23092,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>d0a50738-2572-4a31-8390-323f3bcc8429</t>
+          <t>922d504d-f965-470f-909d-e7eac8af3601</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -23120,7 +23120,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>afafe014-5001-41e5-8f0a-e01bbac3ce87</t>
+          <t>bad80f7b-1703-40c7-af49-3929dbd97c78</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -23148,7 +23148,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>07ba8256-ec18-454d-837d-4ea93ac5d503</t>
+          <t>80cbd61a-8ca0-46d4-888c-eff4f70c78c7</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -23176,7 +23176,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>eb07c158-b979-4ef2-a436-2082e43bd7c9</t>
+          <t>6203fc84-d596-4b25-927a-b77232eb332e</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -23204,7 +23204,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>80f19d6e-2807-427d-8fae-73f3830b45f3</t>
+          <t>c5098a42-675d-4738-8ac3-da74ce9fee13</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -23232,7 +23232,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>55316feb-bbfd-46db-b3b3-99c63a677eb0</t>
+          <t>8f1ca4d7-7de3-4aee-a6d8-78373bcc06ce</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -23260,7 +23260,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>ad557575-1eae-4ef0-b049-7c2e0a004f69</t>
+          <t>4bc504bd-b702-4675-a723-2fc7ae353011</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -23288,7 +23288,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>bbbff6c4-2321-42d7-a2dc-d3c454d583c1</t>
+          <t>db68d926-9d8c-4469-a9a5-f6a1b6fa2647</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -23316,7 +23316,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>06bcd2a2-c091-416d-967d-8faa50fee5bd</t>
+          <t>f72d5d86-d54b-42f9-a70e-ea83a8ed6fa1</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -23344,7 +23344,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>00a88d8e-e7d8-4308-beed-6793d4a6d1d0</t>
+          <t>a41215ce-1300-439d-be8d-1808e0fc9fe0</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -23372,7 +23372,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>ac0a7ae7-865c-4082-a5ae-dfd0db6c1eb6</t>
+          <t>06786ef5-18d5-4f63-b6dd-131a3f372fec</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -23400,7 +23400,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>b0c393b5-8e34-4b5d-b4a9-025433211caf</t>
+          <t>df463bbf-75e8-451d-953c-64b72d260b64</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -23428,7 +23428,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>9e42de7a-adbd-4400-a455-079a5b69e5f3</t>
+          <t>6c1c2e7f-b856-429d-86e1-9334bba18095</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -23456,7 +23456,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>3396a119-998e-4f44-9158-f8419bef5df7</t>
+          <t>475667a2-be1e-4b59-9a20-5101ce29972b</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -23484,7 +23484,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>4eb8e2ac-5168-4e0d-a494-2ffd4d6a969c</t>
+          <t>cbfa556c-0004-4c83-8126-4bf2e484a16f</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -23512,7 +23512,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>b3baec7b-8af3-48e3-92be-dd624b3e984a</t>
+          <t>ab637c34-fd32-4b66-b372-b27545d69e00</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -23540,7 +23540,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>c0ad8b91-f636-4c94-8376-4c10f2abf6e2</t>
+          <t>a373a3d0-3132-4e54-b2e8-c8c81e89b1cc</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -23568,7 +23568,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>af750d40-e05a-495d-963a-54bdf4b07296</t>
+          <t>0b95d3e4-14ae-4482-95f9-c7b2137b3ffd</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -23596,7 +23596,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>99529a0a-e695-4980-a2be-abeedcaa9881</t>
+          <t>3d6fd567-b36f-4ac9-9e65-18297aa9d96f</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -23624,7 +23624,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>77f5daca-ab7a-4cd0-88d4-969878934534</t>
+          <t>3ea575e8-23f2-49f2-8e0a-09c5da0793ca</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -23652,7 +23652,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>d7521b3f-afbb-49d3-95cd-dfdc7b95abf8</t>
+          <t>6410fc36-dcd0-4264-a255-1d2e9987c6e5</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -23680,7 +23680,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>6ed39e0f-bea4-4011-a311-48c7044e50f8</t>
+          <t>7b4c1e2b-4ebc-4f9d-9324-fc60a3a60595</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -23708,7 +23708,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>84f74132-8452-4cef-b06a-a88400be21b5</t>
+          <t>67f79cf8-346c-4c5d-aedc-2ff6bba5990a</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -23736,7 +23736,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>be630e28-51c5-4ef8-9cdb-65b4017e8494</t>
+          <t>d5f4e37a-d781-459f-a1ae-373538642ecc</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -23764,7 +23764,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>ef3af975-1f67-47c5-b362-032d23343d1e</t>
+          <t>de7ff3cf-7b53-44f1-b891-1fb040e9ed1f</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -23792,7 +23792,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>0de0e283-f6d9-4939-8da4-97af86940ee9</t>
+          <t>787fa7a5-0be6-49a0-8e39-8203652dd05f</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -23820,7 +23820,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>ed365f92-cda8-449d-86a8-d7b9395e29bd</t>
+          <t>10241da7-0afb-454c-8f75-103d9fe0b3b9</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -23848,7 +23848,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>ba244276-2508-44c5-ae33-45862cc609bc</t>
+          <t>bddc177d-3a43-41e8-b6d5-d0a75eed4590</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -23876,7 +23876,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>f1804576-79a5-48a0-97cb-6f91f9888b86</t>
+          <t>5f5a680a-ee69-4a0f-bf95-b38af3ea92b3</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -23904,7 +23904,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>0137b026-dcc6-4a02-b712-73ed2abc5428</t>
+          <t>0b4d6577-aead-4267-ab90-55f49212e0b7</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -23932,7 +23932,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>da271066-f7d7-4d82-b2af-a639c4e772a2</t>
+          <t>97e1d456-e392-4238-b823-fade727e94ef</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -23960,7 +23960,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>b2ea9a05-c702-46ad-a30a-d638d73267fd</t>
+          <t>5c58c1a5-83aa-4a1a-85ca-38d8d66b7d1e</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -23988,7 +23988,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>d0d0a28c-51ac-4ea0-92a7-bd48f5fdac2f</t>
+          <t>09143d0f-0559-492a-8d6b-cbbffc945b96</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -24016,7 +24016,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>02e3d11c-dc53-48d1-89b4-882a8f18e9d4</t>
+          <t>4fdf4549-dfba-47bb-9d16-2b06f823b4a2</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -24044,7 +24044,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>a5ea9b89-32d7-4118-b687-79e2e1825aaf</t>
+          <t>ddabe9c2-acbf-47c4-af34-14e74255fec5</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -24072,7 +24072,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>acc9828a-cc50-447b-856f-6fad8eda87c3</t>
+          <t>9103d88b-840e-4595-8cb4-561dcdece3b4</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -24100,7 +24100,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>fef0ce36-009a-405c-b267-ed8853c25526</t>
+          <t>19cde29f-dbf3-48a1-ad6d-5370f2bf797a</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -24128,7 +24128,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>4fcd3f7a-3016-420d-a433-19ecb8151486</t>
+          <t>5cd9f6e8-944f-4ad2-9a7c-646310061c8a</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -24156,7 +24156,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>9be4fdb6-ede9-412e-8b36-846f57c079ff</t>
+          <t>5e46dc96-8cdc-45a6-b2eb-f61958884113</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -24184,7 +24184,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>a0c877c2-64b0-42e8-990e-a9fb60885ae4</t>
+          <t>5dc4770e-9e2e-4da3-adc5-1aae7d182f11</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -24212,7 +24212,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>5edcea45-80dc-426e-b902-85e9699e77c3</t>
+          <t>47fee34d-15a2-4a39-958d-3f6c6b067b13</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -24240,7 +24240,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>f326a325-842f-4b09-a875-f395d1fb3440</t>
+          <t>775e1927-0d23-4d0b-9e76-e63cefe91dc1</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -24268,7 +24268,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>19aa9970-1258-4b55-8a44-58a97ab3bb3d</t>
+          <t>720e1393-68f6-48bc-9374-e344728c910e</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -24296,7 +24296,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>8271c6ab-c767-40e9-8c7e-7d15d1b2bfa6</t>
+          <t>dc9b080b-cee0-4f84-8603-c159d26c86f5</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -24324,7 +24324,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>ece7c61f-57f7-4e04-8b36-5932ed34a092</t>
+          <t>6ca12947-63c7-49a2-8c5d-ea33598ca3c2</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -24352,7 +24352,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>3e79f488-b8ba-4174-a20c-c6d205a4c46c</t>
+          <t>95908425-8b75-4b0f-8750-e386b6fe36de</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -24380,7 +24380,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>1549df60-c441-46bf-a198-ef292fcef965</t>
+          <t>deb75a1e-fba7-48f0-9b72-96ecb2572352</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -24408,7 +24408,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>09014153-89b8-4272-8f9e-6d555a933a40</t>
+          <t>a8aeb39e-83b8-440c-9acb-a4f145fb5635</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -24436,7 +24436,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>71a97fe7-8d12-4a18-b607-dfd8a05a79ab</t>
+          <t>c6eff43f-f97d-4c5b-a1e5-5d1606efc45f</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -24464,7 +24464,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>b9735a59-f5a2-4c63-b378-57a04acf588a</t>
+          <t>106ca105-a3fd-4975-bc76-1eebd968b3af</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -24492,7 +24492,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>dc350be9-d8ca-4223-aac3-302de56a669e</t>
+          <t>4840189a-2cb2-4e45-88ff-b328ce3ea401</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -24520,7 +24520,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>d2e84bda-e9d7-4fb6-b548-3c48fc99941a</t>
+          <t>faafded3-61ef-4c7e-9c3e-1d8b1bf9787c</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -24548,7 +24548,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>7c010ade-6b61-4f33-b088-bbfa7a964abd</t>
+          <t>d72a27ba-c956-4bb5-993e-5985c1798a71</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -24576,7 +24576,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>b3d97b53-8cd7-4244-b842-c687d86b7117</t>
+          <t>fa579e26-26f2-43ca-9a49-327a57c5aaff</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -24604,7 +24604,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>679718e3-a975-4e5c-a4ac-71f06e304c2f</t>
+          <t>f3c88f9a-102b-4fd0-8eec-ef7242e3dd36</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -24632,7 +24632,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>85e3b98a-d784-4dbe-b53f-233d7ad0fddb</t>
+          <t>ae0b8866-3440-4278-9400-2245e96120b1</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -24660,7 +24660,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>859c622f-8585-4d28-b1fd-db6ba43cb81e</t>
+          <t>b497b29e-81b5-46fd-8785-aa301ee0582f</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>f63ea704-98f2-44ea-851a-fcf1c0c666ff</t>
+          <t>0354506a-cd63-4931-a254-19e1661c0086</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -24716,7 +24716,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>fc665bc1-5b97-49b5-ac9e-f0c621ce6ab7</t>
+          <t>09aa1c63-b0cd-4113-aabf-d8c4e7d23845</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -24744,7 +24744,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>aec3c34b-255e-406f-b9fb-9ca14021e55a</t>
+          <t>509e8bda-cbdd-4bde-8da3-6f2f6e2099fc</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -24772,7 +24772,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>d00cc2cb-b14a-4992-b375-aa012248b54e</t>
+          <t>a68f911a-0f66-4539-80a1-2df4a25de745</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -24800,7 +24800,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>328f13a2-507a-4657-b897-23dd91464271</t>
+          <t>89c96923-99ea-4fe1-bacc-dff9eff26442</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -24828,7 +24828,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>5fadf29e-f26d-4c69-9c9c-d56a883b19d1</t>
+          <t>1c00867d-aab6-4f32-9910-a888b4b0d99e</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -24856,7 +24856,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>b88ee126-3224-40a5-aa00-2dde603f3ea1</t>
+          <t>71d5465d-c869-44b8-9eb1-7fe0db8df221</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -24884,7 +24884,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>883dbd35-164a-4daf-879a-0bd0e5dc7300</t>
+          <t>445fb733-f586-43dd-9d7b-3a6a15a4bee8</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -24912,7 +24912,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>7822b468-6bcc-41ae-accf-eeb96d12b0c5</t>
+          <t>6442ef9e-19cf-4495-a1e4-420e63fc854f</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -24940,7 +24940,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>a50bb1a9-1cf1-41fd-a20c-6f043a47fefa</t>
+          <t>30e03069-97e8-40b1-9b3a-30952e7f1e1f</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -24968,7 +24968,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>7e4009a5-7562-4fb0-ac82-844b837a9554</t>
+          <t>c2bb69b3-da7c-46b5-afb7-d998cf35e8ec</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -24996,7 +24996,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>08deea06-16c9-46ae-92d8-61baa51ff912</t>
+          <t>29f24305-9d37-49fe-a8ad-70959ce8a87d</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -25024,7 +25024,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>b2af8838-8746-4a13-83de-0dcc081896fd</t>
+          <t>1537d906-6e0a-47ab-8a80-bfb2018f6314</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -25052,7 +25052,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>2e37ca6a-b1b5-4dc9-81fe-f160f3b55d76</t>
+          <t>e7f16cc5-4059-4d7a-ba8e-1e9b2c0423e1</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -25080,7 +25080,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>b852f46c-6909-4b74-932c-755e5dcc13d5</t>
+          <t>245c6dd3-1278-4360-a8ca-c994e6b472d3</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -25108,7 +25108,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>c7d12fc6-8987-4c1e-a1ca-f41944336fd3</t>
+          <t>436c0441-a64c-467b-8eee-4b77d9f428ed</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -25136,7 +25136,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>18224495-276e-4298-9d07-2088a1315f17</t>
+          <t>f6cfe847-62de-4fcf-a663-962889d14124</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -25164,7 +25164,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>879609e5-90ab-41ee-b5ce-91eb24f9df60</t>
+          <t>c0a07440-4ba6-452a-adca-a06f3142aaf5</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -25192,7 +25192,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>0eaf8bb7-3275-4a02-b4c8-14df95ab2780</t>
+          <t>2976e76d-1a61-4bf1-a596-e95a992f26cb</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -25220,7 +25220,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>7759936b-897c-4327-8c7b-007f9e8505cc</t>
+          <t>e94b3293-8188-454c-ad4c-2488ba9a97c4</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -25248,7 +25248,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>6ee2a976-236d-415c-aa49-c556e6652b87</t>
+          <t>3bb1d3df-baa0-422c-9a14-645e0a072f9b</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -25276,7 +25276,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>254222ec-aa03-4c23-915e-51d30614810b</t>
+          <t>066b2d09-c013-41d8-b6ff-59bcb8ae03c2</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -25304,7 +25304,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>c5fd9586-f7f0-4aac-bfd6-e7b0d072fb44</t>
+          <t>96bd2453-e702-466e-abdc-7201da5c6e1a</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -25332,7 +25332,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>0d50c51a-a8fc-4a4d-b965-78a557c937a1</t>
+          <t>8ecffd35-366d-49db-868f-110aa1e0b9ef</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -25360,7 +25360,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>5ef867e9-8f5e-491f-880a-6e647c1a6106</t>
+          <t>ae96d02b-f569-4da3-bb32-7b15200c1dd6</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>d8b021e3-4109-4809-99c6-1c8c6162a5c3</t>
+          <t>af6e0950-f381-4767-a617-1c171a57f571</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -25416,7 +25416,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>620db405-a909-4a90-ac5b-6e9209365721</t>
+          <t>631902c7-d897-41ce-a346-366516e57b25</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -25444,7 +25444,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>8453e504-6fca-465e-b985-23686456783e</t>
+          <t>2ea8f7f9-191c-445d-95b3-e02e07939316</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -25472,7 +25472,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>1ca9bf00-2a1c-427e-96ef-b1737d73d347</t>
+          <t>44148685-257e-4ec4-8a05-f364475db7af</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -25500,7 +25500,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>c2495ce7-056f-452c-a13e-30f9593cad92</t>
+          <t>f9f69c1a-fc88-4e3d-93a2-fe4d035d17fa</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -25528,7 +25528,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>87acaab8-2663-4965-8f28-aba1040aea1a</t>
+          <t>bf4b7066-5d30-4f5e-85c3-55f95741a160</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -25556,7 +25556,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>7d14d953-c2c8-4942-9d78-52b7cae4b34a</t>
+          <t>55f4fefa-c14f-4daa-8b2e-0b1ac5b90e7d</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -25584,7 +25584,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>c5f93cd3-4810-43a4-9859-d6e52c1e9ede</t>
+          <t>504816f4-8631-4653-b2ce-c0afe9f5495f</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -25612,7 +25612,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>672e0cb5-65d3-4b53-a9f0-1dc9b6728eaf</t>
+          <t>507638c9-3be6-44df-a0df-09786067c4b4</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -25640,7 +25640,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>3c0c23a9-8b6a-4da8-a22d-6fc2420b751a</t>
+          <t>92b9e351-d328-4b9e-aec1-bda253bd93d5</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -25668,7 +25668,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>8838e5a6-cd50-422e-97c5-523bce30f3cd</t>
+          <t>6795c829-e998-4cfa-9d46-011a9ee494d4</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -25696,7 +25696,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>29c19b31-25c2-4d40-a575-eb2fd988d7ec</t>
+          <t>4dfbb5a6-e688-4612-835d-b1d5fc802c7b</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -25724,7 +25724,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>a622d99e-8323-4b97-b627-8f1ac5a92f33</t>
+          <t>92f811c8-c0f1-49ff-86d2-dc44f7f560c8</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -25752,7 +25752,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>5e67e2fd-5a00-48fb-958e-78f115c81004</t>
+          <t>6f47f21c-9125-4fdf-b749-f802b94cec58</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -25780,7 +25780,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>af404f4d-6e64-4b80-a2a7-f4c3fe0ed6f0</t>
+          <t>8bc8f8d2-288e-42ea-adc8-9f66a9a207ad</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -25808,7 +25808,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>e7391d1d-ba63-4584-8abe-4981f8367ec0</t>
+          <t>de5ca362-e8f0-4ef8-9648-e330d5005e89</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -25836,7 +25836,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>979be841-63be-4755-995c-28ef57c9fec1</t>
+          <t>46720f8d-247a-47e7-b27e-e44548cd44c9</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -25864,7 +25864,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>a4ea1c36-71f0-463a-b574-7d90ee7c10ce</t>
+          <t>9e897808-b5b2-4fa8-a15e-eb6f0d11103d</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -25892,7 +25892,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>77719a07-0820-4f7f-959f-f8403d0fafb0</t>
+          <t>c6e20099-3b4d-469b-bc81-b252b5a7a24e</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -25920,7 +25920,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>b411cc0e-d368-42e8-bf07-c10761383e9e</t>
+          <t>56b64d52-d56e-46f3-abe9-485b525d9efa</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -25948,7 +25948,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>2cfd1c99-feff-4963-a7b0-a639fe80a48a</t>
+          <t>90cb2bff-3a27-4a4b-8827-ef371b1a9f05</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -25976,7 +25976,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>1836cf32-b0c8-46e2-bc0e-cef4ae14012d</t>
+          <t>cf2cef16-b7b4-4944-8e6e-f222f68e9896</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -26004,7 +26004,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>035e4a6e-1c59-41fd-971c-a6f22704dc05</t>
+          <t>a5ef215b-2ba0-45de-bc96-2e7160085c3e</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -26032,7 +26032,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>6a7936a9-8331-4c10-a864-6eefe88c1dc4</t>
+          <t>4f8f7e70-d3b7-4ae6-bf5b-20f466140f2b</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -26060,7 +26060,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>9d980250-812f-4579-9395-a8f9066a3ad9</t>
+          <t>2ce7c817-fb34-43a5-b230-4f0b1d63f22e</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -26088,7 +26088,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>3e980fb1-c3ea-4586-9c47-29e9a3c17d5f</t>
+          <t>e2643c6b-bc81-4111-a07c-086b77757c88</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -26116,7 +26116,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>63c2f616-c2f6-4ec2-b5e8-99c5a93dd2e2</t>
+          <t>015e3a2d-4e2b-4318-b75e-d429f4bba569</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -26144,7 +26144,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>ee895e61-62ea-4b9d-8e34-8bc5f7962ee0</t>
+          <t>b0fcaeb9-a4b8-4db7-8ed9-0cea3f4eca43</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -26172,7 +26172,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>787e39b5-30fd-419b-aedc-9b0bafaea4b6</t>
+          <t>0c5cd970-992b-4777-9e3b-360119acfa87</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -26200,7 +26200,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>6811b9d9-fd2b-487e-aca9-c9960aaa08ef</t>
+          <t>01645220-fc9d-4574-9880-185a4d931489</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -26228,7 +26228,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>6e235f4b-47f7-4c64-954c-0d31ef21fcab</t>
+          <t>4414982c-e4d5-4ba8-8b87-cd67f65f63a5</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -26256,7 +26256,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>e9370eae-d861-4781-8849-85999ebbd886</t>
+          <t>e315a916-082b-4e37-b2a4-7cb5d788c9a6</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -26284,7 +26284,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>20dc00a8-b4a7-4bf7-9c7a-39819205d695</t>
+          <t>6fc123c6-d6af-479a-bd58-ffa5beb88c8a</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -26312,7 +26312,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>e6c28b89-9c9f-4a7b-882a-26d8182599e3</t>
+          <t>34389718-ac90-41f1-9b1e-db42d43bc444</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -26340,7 +26340,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>629bc831-73c0-4890-8557-b35140954c4e</t>
+          <t>7c6b18c8-9da4-4bac-b736-2945dd4ac753</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -26368,7 +26368,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>0ed4147d-3a75-4ab3-800e-fdfa89cbcf9a</t>
+          <t>25e7e609-8df4-4340-93b7-6ee621565681</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -26396,7 +26396,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>5f4abb00-3f46-4185-9c31-e793345f5682</t>
+          <t>5406e9f0-9ef6-4474-939d-495d1c2c512e</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -26424,7 +26424,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>05b16a0a-fd85-4eff-ade3-70048bdf22df</t>
+          <t>bd90282b-a37d-4c54-8dc8-0c7d54b6089f</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -26452,7 +26452,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>16489882-154b-408b-946c-3a0f6c578ada</t>
+          <t>9aa0a4f5-d990-4691-a758-abc2fac0b272</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -26480,7 +26480,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>77601966-c8d2-481f-8f74-ef6f771c6d5e</t>
+          <t>9830ed7c-443c-4fce-aeb8-3add937771fc</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -26508,7 +26508,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>eedaee48-3219-451b-a276-c34ab422abf4</t>
+          <t>fdd19ed6-987a-4cda-9d29-159488e8fd11</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -26536,7 +26536,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>15db56ed-2b9b-4e4b-a36c-99793332122d</t>
+          <t>a8aa48fb-3438-4bce-a965-49f7f6546768</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -26564,7 +26564,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>74c17eb9-bbd6-463c-885d-55488c3e4574</t>
+          <t>2ab58aa9-a0a4-4207-b637-020ea4f5834a</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -26592,7 +26592,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>207ce9f6-d3d2-4853-8273-07e42b5eb0b8</t>
+          <t>e0849269-51bf-4510-b2ce-25874b972147</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -26620,7 +26620,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>ae1882c1-4f3b-402a-bed2-5efa255ab0d8</t>
+          <t>013bfa94-27c0-4f87-b199-dd3c91201a5e</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -26648,7 +26648,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>474a94a9-bc42-446d-a667-2af23f26c8d9</t>
+          <t>888d1b0d-e993-4692-ad71-fdd657b061a7</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -26676,7 +26676,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>bef9975b-920b-4563-a7d5-31616e5429ee</t>
+          <t>c4681625-2236-4812-9535-56dcf010f059</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -26704,7 +26704,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>f285c3c9-8b3f-47e6-b3df-2f9a55198be6</t>
+          <t>9b9ee1e2-e33f-45fb-9678-a5ddcd906ea6</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -26732,7 +26732,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>16c2644a-f2f4-41be-abe2-fe4800d3445a</t>
+          <t>4c928296-f455-4537-9046-f338b601777b</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -26760,7 +26760,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>44fafb24-288c-451a-8128-c68583bef95d</t>
+          <t>b697608e-752c-49cb-b3f3-e1da60839eef</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -26788,7 +26788,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>763b53e0-a53a-4bc7-a293-98da09cb1410</t>
+          <t>0ec19742-8fb5-4d21-b93c-0d98d20c9d0e</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -26816,7 +26816,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>7da0ea99-faa6-455e-8079-5f409b73a446</t>
+          <t>e7454938-01db-486e-bd6f-079ad671280e</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -26844,7 +26844,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>2dcee394-75b9-4924-b75b-fc2dc7d17afb</t>
+          <t>58689c07-8fdd-4bbb-8bee-78db44699c60</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -26872,7 +26872,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>3d484ce6-2c9e-414f-9a59-9f05dec9d0f9</t>
+          <t>a1d909c7-81c8-430e-8331-7ceee73514a7</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -26900,7 +26900,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>880c3ec1-02e1-4618-85ff-540b113209d4</t>
+          <t>6e25aa65-a2bb-48f3-93c4-3a09badc9176</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -26928,7 +26928,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>9cf40013-084d-450b-9c54-9b46e76b8c7c</t>
+          <t>314adbd1-3d8b-4b35-8b25-13a9c820df4c</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -26956,7 +26956,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>9c569f94-8566-4bea-8100-e9bb6f7e3425</t>
+          <t>38748691-5cda-4d6a-9322-044341ce1dc1</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -26984,7 +26984,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>4969fbad-0d88-44a2-aba1-1aa41faf57ca</t>
+          <t>9250c3d9-0686-49ac-a994-5eaa7d46091e</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -27012,7 +27012,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>4e452064-a856-49c7-a524-e55740eb66c1</t>
+          <t>412c9241-f118-4202-9b64-4c186fc15aec</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -27040,7 +27040,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>5289d8ce-8803-44ca-8e4c-60012f49ee5e</t>
+          <t>7690015a-5997-4f93-8057-c97dfdc1866f</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -27068,7 +27068,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>587a1184-6168-4d15-ab12-69023f7465f6</t>
+          <t>185c2eb4-8d9e-4ef3-936b-2531310cea75</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -27096,7 +27096,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>c7acf7a6-1a67-4183-b97d-b45f39eb9195</t>
+          <t>a0f67d37-3f26-4f58-8813-28b948b0c223</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -27124,7 +27124,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>86a49ebd-a36b-45f1-adf8-ce0f4242b30e</t>
+          <t>c6985e63-afea-43f4-8d92-efccfcb17390</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -27152,7 +27152,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>e6005b57-d362-48cc-8302-0b2b7d04b115</t>
+          <t>aa51f4b0-0191-4fe3-a942-f6871f51dc48</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -27180,7 +27180,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>a7cdbd17-f2ec-4773-863f-712cfe4f9f19</t>
+          <t>66e1badc-5c6f-41a3-a743-e29d0fa75ff1</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -27208,7 +27208,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>6af41426-c2e4-4e80-ad1a-447f3c804ba3</t>
+          <t>df4726d3-01f8-4f68-978e-ddbbde15bcdd</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -27236,7 +27236,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>12e181d9-bec0-47a5-9f91-4e1341e3aae8</t>
+          <t>eb6d4216-b5ee-4c6f-a191-5393c3456347</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -27264,7 +27264,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>f3f881ec-9472-445e-9f92-331a3f78c7d4</t>
+          <t>eabf70c8-1b54-4080-b1c2-419a2d31496d</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -27292,7 +27292,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>35c51187-b794-4591-b305-c3431419a76e</t>
+          <t>0b015b8c-0cf6-4d87-891f-0c322e76add2</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -27320,7 +27320,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>85dc3ec0-cbb5-4a8b-b786-3003dd18a471</t>
+          <t>b5e4432a-619a-40f2-a264-8a9f887decf7</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -27348,7 +27348,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>1439b194-1636-4b74-bfb0-94245f5fa7ba</t>
+          <t>4947012a-88af-4243-b04a-69ad9b26a61b</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -27376,7 +27376,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>a6b36607-de58-4bb1-9624-717573d8e67d</t>
+          <t>76bcc354-d79c-4736-95dc-1654faad4c7d</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -27404,7 +27404,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>d415d55d-04cd-4db8-9b1a-70c9bd45f965</t>
+          <t>7cbc1501-5cf8-4e0f-bcd6-7dea533416ff</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -27432,7 +27432,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>23e6db7b-4d5d-402a-9cba-4d1ba6c1b841</t>
+          <t>f95f06e5-f31c-4699-8fe5-11a34a4f9dd0</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -27460,7 +27460,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>e758ce9f-00da-42ea-982f-ca1e69893a94</t>
+          <t>053510d6-3fe5-414b-84f6-7b2e7ef33197</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -27488,7 +27488,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>bbe1f749-fb06-425d-a6b7-72a21de6f69b</t>
+          <t>31779824-7026-44cf-a58d-a8d310d06d80</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -27516,7 +27516,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>55b21b21-c1be-416b-84f3-d8f184385e0e</t>
+          <t>b7817b99-57dd-4912-a386-ae0e98765254</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -27544,7 +27544,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>0e4ba3b2-8fa2-40be-9c2c-4686cb2acba7</t>
+          <t>8047ba80-ae76-47fc-b6fa-c3c56ff534d6</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -27572,7 +27572,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>27e4c180-dbc1-41a3-8ba6-e36ba73d904d</t>
+          <t>dac25f0f-ef48-4e73-924f-34fdec16b7a9</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -27600,7 +27600,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>0d098f54-bd96-4115-b1fd-2652a82d9f8b</t>
+          <t>5554a452-0658-43fa-91aa-881d43b3353b</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -27628,7 +27628,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>41700faf-1f63-492f-ac9b-5bbc847aa225</t>
+          <t>7412cb18-4fdd-4586-bd64-af7186118754</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -27656,7 +27656,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>8ad9f7c7-5e01-4928-9956-75f5b774f31a</t>
+          <t>02cebde9-5935-494f-a7a9-7056fca439b9</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -27684,7 +27684,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>5287ce63-53c1-4be3-93f7-c59648dbcbaa</t>
+          <t>e9dcd693-d382-4141-9322-2d90c773bef3</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -27712,7 +27712,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>a2a121dc-abe4-4865-b34e-d36fcd72e94a</t>
+          <t>724a253f-56b4-4d01-87ca-f58bf3035767</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -27740,7 +27740,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>9ae3252a-fdf3-414f-b727-e42663d65f07</t>
+          <t>678cfa67-7c59-44e8-9200-ce8bae5628ff</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -27768,7 +27768,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>5f229749-599d-4049-aa28-f4907856e128</t>
+          <t>a804aadd-dbce-4479-b7fd-efbceea8f0bf</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -27796,7 +27796,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>83da01be-8f5f-4e27-bd15-6379b9869638</t>
+          <t>09ba80ff-879c-4abc-b404-62bc142efd45</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -27824,7 +27824,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>e80e971e-9eef-4187-be87-146394e24721</t>
+          <t>e15da9d6-0c19-4326-ba5d-7789062db274</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -27852,7 +27852,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>4a99a349-1312-4e8d-a3b1-11eaf4df1251</t>
+          <t>44e03b91-f01b-40f7-b9d6-f47b5bba353c</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -27880,7 +27880,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>39249bdf-5004-4e1c-ac15-122571dc4b7b</t>
+          <t>7610b5ec-d902-4541-905f-12daff1b4389</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -27908,7 +27908,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>47f8807c-4232-4766-951d-a6e204c12078</t>
+          <t>7a47ebf7-859e-43b3-8a41-2e3c45fe6014</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -27936,7 +27936,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>cd144e5f-f5eb-4573-9e70-b7395d10ae34</t>
+          <t>21080203-f04e-44a2-a8fa-6e8472e4d3ce</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -27964,7 +27964,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>5f0e1515-fc0a-44f8-9080-ed6cb5a42005</t>
+          <t>b3f0d180-704b-443e-9a02-bcbccf60dc41</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -27992,7 +27992,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>73927a69-e6e8-4aef-99f6-996ba08af109</t>
+          <t>75647d91-7a29-44ed-af8c-059f1f463825</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -28020,7 +28020,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>f0cf9f19-1875-4a20-a749-2b3bae2d8e8f</t>
+          <t>fb60cb5d-fc59-4978-90fc-5721cbf882a2</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -28048,7 +28048,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>672975d8-b818-4004-a8f0-47c099542e3b</t>
+          <t>d292c6a4-b5a3-455c-b7c3-f9e77fb4bd59</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -28076,7 +28076,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>55114d7e-ec8e-4543-9df3-717216b9c860</t>
+          <t>858a3a03-89ee-4d15-82aa-babdc6d3a0b9</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -28104,7 +28104,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>36bd4305-3d3a-43bc-bc42-e197a6d0d5d6</t>
+          <t>e5b6a712-85b0-4cdd-b728-5abc11b746b1</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -28132,7 +28132,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>d4c0025b-b8ea-4587-a37d-c40862ca9b5c</t>
+          <t>9e80cb20-36bc-43b5-a411-b2b5f3a97efc</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -28160,7 +28160,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>bf638194-17e4-4a89-b3a9-dc3794276ad4</t>
+          <t>c932baa6-6cb7-49db-ba24-779091927843</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -28188,7 +28188,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>4882737f-cf9c-437a-9489-7b57c465bae7</t>
+          <t>9c5dab34-2e38-41b1-8001-91b5e3608a20</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -28216,7 +28216,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>793360ce-f0d0-4273-a54c-fa4f30b28eff</t>
+          <t>f8c4c29e-e0e0-4be1-b63d-11c05291a408</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -28244,7 +28244,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>a5e8aa30-ae9d-40fa-94b1-b725d51c02f9</t>
+          <t>b536b557-199f-4930-9275-659f87ea0a68</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -28272,7 +28272,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>3973f4d9-fd26-415f-bc16-c997c15bc791</t>
+          <t>2f7859ad-30fb-4311-91cb-37250b60de50</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -28300,7 +28300,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>7653e662-e78a-4782-ba59-ae4c733fd783</t>
+          <t>40b68a79-1175-460c-9f28-98529514a920</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -28328,7 +28328,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>faeb6b81-a040-4d82-826b-2b27120f2432</t>
+          <t>dc3b8cb8-bdd8-4e47-af28-0a1bd69b16c6</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -28356,7 +28356,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>eb2cd2b4-5bc2-4601-9baf-d27dc7fbdbe0</t>
+          <t>f4677e21-e058-4f0e-9816-9751cf8b7432</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -28384,7 +28384,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>759be269-f90f-40ca-8c45-74cfb956ef0d</t>
+          <t>462f82b9-0ff9-4a68-879c-e4e0d8c47bb6</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -28412,7 +28412,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>17a69caa-d8c6-4b27-ac6e-ea6b24fc69fb</t>
+          <t>16db9774-d7ed-4adf-a795-0b732eb08384</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -28440,7 +28440,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>e5a3f157-40e2-43a9-b7ef-219e0cdaba64</t>
+          <t>f7052b53-859c-476a-88cc-f81458c86f8f</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
